--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="771">
   <si>
     <t>Normal verb - Past tense</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">බැබලුනා </t>
   </si>
   <si>
-    <t>සෙල්ලම් කරනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">විකුණනවා </t>
   </si>
   <si>
@@ -101,18 +98,12 @@
     <t xml:space="preserve">කියෙව්වා </t>
   </si>
   <si>
-    <t>පාඩම් කරනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">විසදනවා </t>
   </si>
   <si>
     <t xml:space="preserve">විසදුවා </t>
   </si>
   <si>
-    <t>උදව් කරනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">උගන්නනවා </t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t xml:space="preserve">හැදුවා </t>
   </si>
   <si>
-    <t>කතා කරනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">විහිදනවා </t>
   </si>
   <si>
@@ -149,24 +137,15 @@
     <t>දිව්වෙමි</t>
   </si>
   <si>
-    <t>වාදනය කරනවා</t>
-  </si>
-  <si>
     <t>ගෙරෙව්වා</t>
   </si>
   <si>
     <t>ගොරවනවා</t>
   </si>
   <si>
-    <t>අවදි වෙනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">සොයනවා </t>
   </si>
   <si>
-    <t>ඇසුරුම් කරනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">සෙව්වා </t>
   </si>
   <si>
@@ -386,33 +365,6 @@
     <t>බැබලෙති</t>
   </si>
   <si>
-    <t>සෙල්ලම් කළෙමි</t>
-  </si>
-  <si>
-    <t>සෙල්ලම් කළෙමු</t>
-  </si>
-  <si>
-    <t>සෙල්ලම් කළේය</t>
-  </si>
-  <si>
-    <t>සෙල්ලම් කළාය</t>
-  </si>
-  <si>
-    <t>සෙල්ලම් කළෝය</t>
-  </si>
-  <si>
-    <t xml:space="preserve">සෙල්ලම් කරමි </t>
-  </si>
-  <si>
-    <t>සෙල්ලම් කරමු</t>
-  </si>
-  <si>
-    <t>සෙල්ලම් කරයි</t>
-  </si>
-  <si>
-    <t xml:space="preserve">සෙල්ලම් කරති </t>
-  </si>
-  <si>
     <t>විකුණුවෙමි</t>
   </si>
   <si>
@@ -467,33 +419,6 @@
     <t>කියවති</t>
   </si>
   <si>
-    <t>පාඩම් කළෙමි</t>
-  </si>
-  <si>
-    <t>පාඩම් කළෙමු</t>
-  </si>
-  <si>
-    <t>පාඩම් කළේය</t>
-  </si>
-  <si>
-    <t>පාඩම් කළාය</t>
-  </si>
-  <si>
-    <t xml:space="preserve">පාඩම් කළෝය </t>
-  </si>
-  <si>
-    <t>පාඩම් කරමි</t>
-  </si>
-  <si>
-    <t>පාඩම් කරමු</t>
-  </si>
-  <si>
-    <t>පාඩම් කරයි</t>
-  </si>
-  <si>
-    <t xml:space="preserve">පාඩම් කරති </t>
-  </si>
-  <si>
     <t>විසදුවෙමි</t>
   </si>
   <si>
@@ -521,33 +446,6 @@
     <t>විසදති</t>
   </si>
   <si>
-    <t>උදව් කළෙමි</t>
-  </si>
-  <si>
-    <t>උදව් කළෙමු</t>
-  </si>
-  <si>
-    <t>උදව් කළේය</t>
-  </si>
-  <si>
-    <t>උදව් කළාය</t>
-  </si>
-  <si>
-    <t xml:space="preserve">උදව් කළෝය </t>
-  </si>
-  <si>
-    <t>උදව් කරමි</t>
-  </si>
-  <si>
-    <t>උදව් කරමු</t>
-  </si>
-  <si>
-    <t>උදව් කරයි</t>
-  </si>
-  <si>
-    <t xml:space="preserve">උදව් කරති </t>
-  </si>
-  <si>
     <t>ඉගැන්නුවෙමි</t>
   </si>
   <si>
@@ -602,33 +500,6 @@
     <t>සිටිති</t>
   </si>
   <si>
-    <t>කතා කළෙමි</t>
-  </si>
-  <si>
-    <t>කතා කළෙමු</t>
-  </si>
-  <si>
-    <t>කතා කළේය</t>
-  </si>
-  <si>
-    <t>කතා කළාය</t>
-  </si>
-  <si>
-    <t>කතා කළෝය</t>
-  </si>
-  <si>
-    <t>කතා කරමි</t>
-  </si>
-  <si>
-    <t>කතා කරමු</t>
-  </si>
-  <si>
-    <t>කතා කරයි</t>
-  </si>
-  <si>
-    <t xml:space="preserve">කතා කරති </t>
-  </si>
-  <si>
     <t>දැල්වුවෙමි</t>
   </si>
   <si>
@@ -656,60 +527,6 @@
     <t>දල්වති</t>
   </si>
   <si>
-    <t>රැගෙන ආවෙමි</t>
-  </si>
-  <si>
-    <t>රැගෙන ආවෙමු</t>
-  </si>
-  <si>
-    <t>රැගෙන ආවේය</t>
-  </si>
-  <si>
-    <t>රැගෙන ආවාය</t>
-  </si>
-  <si>
-    <t>රැගෙන ආවෝය</t>
-  </si>
-  <si>
-    <t>රැගෙන එමි</t>
-  </si>
-  <si>
-    <t>රැගෙන එමු</t>
-  </si>
-  <si>
-    <t>රැගෙන එයි</t>
-  </si>
-  <si>
-    <t>රැගෙන එති</t>
-  </si>
-  <si>
-    <t>වාදනය කළෙමි</t>
-  </si>
-  <si>
-    <t>වාදනය කළෙමු</t>
-  </si>
-  <si>
-    <t>වාදනය කළේය</t>
-  </si>
-  <si>
-    <t>වාදනය කළාය</t>
-  </si>
-  <si>
-    <t xml:space="preserve">වාදනය කළෝය </t>
-  </si>
-  <si>
-    <t>වාදනය කරමි</t>
-  </si>
-  <si>
-    <t>වාදනය කරමු</t>
-  </si>
-  <si>
-    <t>වාදනය කරයි</t>
-  </si>
-  <si>
-    <t xml:space="preserve">වාදනය කරති </t>
-  </si>
-  <si>
     <t>ගෙරෙව්වෙමි</t>
   </si>
   <si>
@@ -794,33 +611,6 @@
     <t xml:space="preserve">ගනිති    </t>
   </si>
   <si>
-    <t>අවදි වුනෙමි</t>
-  </si>
-  <si>
-    <t>අවදි වුනෙමු</t>
-  </si>
-  <si>
-    <t>අවදි වුනේය</t>
-  </si>
-  <si>
-    <t>අවදි වුනාය</t>
-  </si>
-  <si>
-    <t>අවදි වුනෝය</t>
-  </si>
-  <si>
-    <t>අවදි වෙමි</t>
-  </si>
-  <si>
-    <t>අවදි වෙමු</t>
-  </si>
-  <si>
-    <t>අවදි වෙයි</t>
-  </si>
-  <si>
-    <t>අවදි වෙති</t>
-  </si>
-  <si>
     <t>සෙව්වෙමි</t>
   </si>
   <si>
@@ -848,33 +638,6 @@
     <t>සොයති</t>
   </si>
   <si>
-    <t>ඇසුරුම් කළෙමි</t>
-  </si>
-  <si>
-    <t>ඇසුරුම් කළෙමු</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ඇසුරුම් කළේය </t>
-  </si>
-  <si>
-    <t>ඇසුරුම් කළාය</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ඇසුරුම් කළෝය </t>
-  </si>
-  <si>
-    <t>ඇසුරුම් කරමි</t>
-  </si>
-  <si>
-    <t>ඇසුරුම් කරමු</t>
-  </si>
-  <si>
-    <t>ඇසුරුම් කරයි</t>
-  </si>
-  <si>
-    <t>ඇසුරුම් කරති</t>
-  </si>
-  <si>
     <t xml:space="preserve">මම </t>
   </si>
   <si>
@@ -902,12 +665,6 @@
     <t>ඔවුහු</t>
   </si>
   <si>
-    <t xml:space="preserve">ඇය </t>
-  </si>
-  <si>
-    <t xml:space="preserve">මම  </t>
-  </si>
-  <si>
     <t>පැමිණියා</t>
   </si>
   <si>
@@ -938,24 +695,6 @@
     <t xml:space="preserve">කළා </t>
   </si>
   <si>
-    <t xml:space="preserve">සෙල්ලම් කළා </t>
-  </si>
-  <si>
-    <t xml:space="preserve">පාඩම් කළා </t>
-  </si>
-  <si>
-    <t xml:space="preserve">උදව් කළා </t>
-  </si>
-  <si>
-    <t xml:space="preserve">කතා කළා </t>
-  </si>
-  <si>
-    <t xml:space="preserve">වාදනය කළා </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ඇසුරුම් කළා </t>
-  </si>
-  <si>
     <t>හැදුවෙමි</t>
   </si>
   <si>
@@ -983,12 +722,6 @@
     <t>හදති</t>
   </si>
   <si>
-    <t>රැගෙන ආවා</t>
-  </si>
-  <si>
-    <t>රැගෙන එනවා</t>
-  </si>
-  <si>
     <t xml:space="preserve">සිටියා </t>
   </si>
   <si>
@@ -1001,9 +734,6 @@
     <t>පැමිණෙමු</t>
   </si>
   <si>
-    <t>අවදි වුනා</t>
-  </si>
-  <si>
     <t>අහනවා</t>
   </si>
   <si>
@@ -1167,13 +897,1460 @@
   </si>
   <si>
     <t>අහති</t>
+  </si>
+  <si>
+    <t>ආවා</t>
+  </si>
+  <si>
+    <t>ආවෙමි</t>
+  </si>
+  <si>
+    <t>එනවා</t>
+  </si>
+  <si>
+    <t>එමි</t>
+  </si>
+  <si>
+    <t>වුනා</t>
+  </si>
+  <si>
+    <t>වුනෙමි</t>
+  </si>
+  <si>
+    <t>වෙනවා</t>
+  </si>
+  <si>
+    <t>වෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">කඩනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පිළිගන්නවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">අමුණනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගොඩනගනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පුළුස්සනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">අල්ලනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">තෝරනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">හාරනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දකිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැටෙනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">හැංගෙනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පවත්වනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඔසවනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පරදිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දිනනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගෙවනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පදිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">නගිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">බහිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">බනිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගහනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">අඩනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සිනාසෙනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">රවනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">රගපනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">යවනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙන්නනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">නැගිටිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දිවුරනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පිහිනනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සලනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සිතනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වළක්වනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගිලෙනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">තම්බනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පනිනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">උතුරනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගරනවා </t>
+  </si>
+  <si>
+    <t>අමතනවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">නරඹනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පියාඹනවා </t>
+  </si>
+  <si>
+    <t>කඩමි</t>
+  </si>
+  <si>
+    <t>කඩමු</t>
+  </si>
+  <si>
+    <t>කඩයි</t>
+  </si>
+  <si>
+    <t>කඩති</t>
+  </si>
+  <si>
+    <t>පිළිගනිමි</t>
+  </si>
+  <si>
+    <t>පිළිගනිමු</t>
+  </si>
+  <si>
+    <t>පිළිගනියි</t>
+  </si>
+  <si>
+    <t>පිළිගනිති</t>
+  </si>
+  <si>
+    <t>අමුණමි</t>
+  </si>
+  <si>
+    <t>අමුණමු</t>
+  </si>
+  <si>
+    <t>අමුණයි</t>
+  </si>
+  <si>
+    <t>අමුණති</t>
+  </si>
+  <si>
+    <t>ගොඩනගමි</t>
+  </si>
+  <si>
+    <t>ගොඩනගමු</t>
+  </si>
+  <si>
+    <t>ගොඩනගයි</t>
+  </si>
+  <si>
+    <t>ගොඩනගති</t>
+  </si>
+  <si>
+    <t>පුළුස්සමි</t>
+  </si>
+  <si>
+    <t>පුළුස්සමු</t>
+  </si>
+  <si>
+    <t>පුළුස්සයි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පුළුස්සති </t>
+  </si>
+  <si>
+    <t>අල්ලමි</t>
+  </si>
+  <si>
+    <t>අල්ලමු</t>
+  </si>
+  <si>
+    <t>අල්ලයි</t>
+  </si>
+  <si>
+    <t>අල්ලති</t>
+  </si>
+  <si>
+    <t>තෝරමි</t>
+  </si>
+  <si>
+    <t>තෝරමු</t>
+  </si>
+  <si>
+    <t>තෝරයි</t>
+  </si>
+  <si>
+    <t>තෝරති</t>
+  </si>
+  <si>
+    <t>හාරමි</t>
+  </si>
+  <si>
+    <t>හාරමු</t>
+  </si>
+  <si>
+    <t>හාරයි</t>
+  </si>
+  <si>
+    <t>හාරති</t>
+  </si>
+  <si>
+    <t>පියාඹමි</t>
+  </si>
+  <si>
+    <t>දකිමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">දකිමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දකියි </t>
+  </si>
+  <si>
+    <t>දකිති</t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැටෙමි </t>
+  </si>
+  <si>
+    <t>වැටෙමු</t>
+  </si>
+  <si>
+    <t>වැටෙයි</t>
+  </si>
+  <si>
+    <t>වැටෙති</t>
+  </si>
+  <si>
+    <t>පියාඹමු</t>
+  </si>
+  <si>
+    <t>පියාඹයි</t>
+  </si>
+  <si>
+    <t>පියාඹති</t>
+  </si>
+  <si>
+    <t>හැංගෙමි</t>
+  </si>
+  <si>
+    <t>හැංගෙමු</t>
+  </si>
+  <si>
+    <t>හැංගෙයි</t>
+  </si>
+  <si>
+    <t>හැංගෙති</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පවත්වමි </t>
+  </si>
+  <si>
+    <t>පවත්වමු</t>
+  </si>
+  <si>
+    <t>පවත්වයි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පවත්වති </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඔසවමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඔසවමු </t>
+  </si>
+  <si>
+    <t>ඔසවයි</t>
+  </si>
+  <si>
+    <t>ඔසවති</t>
+  </si>
+  <si>
+    <t>පරදිමි</t>
+  </si>
+  <si>
+    <t>පරදිමු</t>
+  </si>
+  <si>
+    <t>පරදියි</t>
+  </si>
+  <si>
+    <t>පරදිති</t>
+  </si>
+  <si>
+    <t>දිනමි</t>
+  </si>
+  <si>
+    <t>දිනමු</t>
+  </si>
+  <si>
+    <t>දිනයි</t>
+  </si>
+  <si>
+    <t>දිනති</t>
+  </si>
+  <si>
+    <t>ගෙවමි</t>
+  </si>
+  <si>
+    <t>ගෙවමු</t>
+  </si>
+  <si>
+    <t>ගෙවයි</t>
+  </si>
+  <si>
+    <t>ගෙවති</t>
+  </si>
+  <si>
+    <t>පදිමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පදිමු </t>
+  </si>
+  <si>
+    <t>පදියි</t>
+  </si>
+  <si>
+    <t>පදිති</t>
+  </si>
+  <si>
+    <t>නගිමි</t>
+  </si>
+  <si>
+    <t>නගිමු</t>
+  </si>
+  <si>
+    <t xml:space="preserve">නගියි </t>
+  </si>
+  <si>
+    <t>නගිති</t>
+  </si>
+  <si>
+    <t>බහිමි</t>
+  </si>
+  <si>
+    <t>බහිමු</t>
+  </si>
+  <si>
+    <t xml:space="preserve">බහියි </t>
+  </si>
+  <si>
+    <t>බහිති</t>
+  </si>
+  <si>
+    <t>බනිමි</t>
+  </si>
+  <si>
+    <t>බනිමු</t>
+  </si>
+  <si>
+    <t>බනියි</t>
+  </si>
+  <si>
+    <t>බනිති</t>
+  </si>
+  <si>
+    <t>ගහමි</t>
+  </si>
+  <si>
+    <t>ගහමු</t>
+  </si>
+  <si>
+    <t>ගහයි</t>
+  </si>
+  <si>
+    <t>ගහති</t>
+  </si>
+  <si>
+    <t>අඩමි</t>
+  </si>
+  <si>
+    <t>අඩමු</t>
+  </si>
+  <si>
+    <t xml:space="preserve">අඩයි </t>
+  </si>
+  <si>
+    <t>අඩති</t>
+  </si>
+  <si>
+    <t>සිනාසෙමි</t>
+  </si>
+  <si>
+    <t>සිනාසෙමු</t>
+  </si>
+  <si>
+    <t xml:space="preserve">සිනාසෙයි </t>
+  </si>
+  <si>
+    <t>සිනාසෙති</t>
+  </si>
+  <si>
+    <t>රවමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">රවමු </t>
+  </si>
+  <si>
+    <t>රවයි</t>
+  </si>
+  <si>
+    <t>රවති</t>
+  </si>
+  <si>
+    <t>රගපාමි</t>
+  </si>
+  <si>
+    <t>රගපාමු</t>
+  </si>
+  <si>
+    <t>රගපායි</t>
+  </si>
+  <si>
+    <t>රගපාති</t>
+  </si>
+  <si>
+    <t>යවමි</t>
+  </si>
+  <si>
+    <t>යවමු</t>
+  </si>
+  <si>
+    <t>යවයි</t>
+  </si>
+  <si>
+    <t>යවති</t>
+  </si>
+  <si>
+    <t>පෙන්නමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙන්නමු </t>
+  </si>
+  <si>
+    <t>පෙන්නයි</t>
+  </si>
+  <si>
+    <t>පෙන්නති</t>
+  </si>
+  <si>
+    <t>නැගිටිමි</t>
+  </si>
+  <si>
+    <t>නැගිටිමු</t>
+  </si>
+  <si>
+    <t>නැගිටියි</t>
+  </si>
+  <si>
+    <t>නැගිටිති</t>
+  </si>
+  <si>
+    <t>දිවුරමි</t>
+  </si>
+  <si>
+    <t>දිවුරමු</t>
+  </si>
+  <si>
+    <t xml:space="preserve">දිවුරයි </t>
+  </si>
+  <si>
+    <t>දිවුරති</t>
+  </si>
+  <si>
+    <t>අමතමි</t>
+  </si>
+  <si>
+    <t>අමතමු</t>
+  </si>
+  <si>
+    <t>අමතයි</t>
+  </si>
+  <si>
+    <t>අමතති</t>
+  </si>
+  <si>
+    <t>පිහිනමි</t>
+  </si>
+  <si>
+    <t>පිහිනමු</t>
+  </si>
+  <si>
+    <t>පිහිනයි</t>
+  </si>
+  <si>
+    <t>පිහිනති</t>
+  </si>
+  <si>
+    <t>සලමි</t>
+  </si>
+  <si>
+    <t>සලමු</t>
+  </si>
+  <si>
+    <t>සලයි</t>
+  </si>
+  <si>
+    <t>සලති</t>
+  </si>
+  <si>
+    <t>සිතමි</t>
+  </si>
+  <si>
+    <t>සිතමු</t>
+  </si>
+  <si>
+    <t>සිතයි</t>
+  </si>
+  <si>
+    <t>සිතති</t>
+  </si>
+  <si>
+    <t>වළක්වමි</t>
+  </si>
+  <si>
+    <t>වළක්වමු</t>
+  </si>
+  <si>
+    <t>වළක්වයි</t>
+  </si>
+  <si>
+    <t>වළක්වති</t>
+  </si>
+  <si>
+    <t>ගිලෙමි</t>
+  </si>
+  <si>
+    <t>ගිලෙමු</t>
+  </si>
+  <si>
+    <t>ගිලෙයි</t>
+  </si>
+  <si>
+    <t>ගිලෙති</t>
+  </si>
+  <si>
+    <t>තම්බමි</t>
+  </si>
+  <si>
+    <t>තම්බමු</t>
+  </si>
+  <si>
+    <t>තම්බයි</t>
+  </si>
+  <si>
+    <t>තම්බති</t>
+  </si>
+  <si>
+    <t>පනිමි</t>
+  </si>
+  <si>
+    <t>පනිමු</t>
+  </si>
+  <si>
+    <t>පනියි</t>
+  </si>
+  <si>
+    <t>පනිති</t>
+  </si>
+  <si>
+    <t>නරඹමි</t>
+  </si>
+  <si>
+    <t>නරඹමු</t>
+  </si>
+  <si>
+    <t>නරඹයි</t>
+  </si>
+  <si>
+    <t>නරඹති</t>
+  </si>
+  <si>
+    <t>උතුරමි</t>
+  </si>
+  <si>
+    <t>උතුරමු</t>
+  </si>
+  <si>
+    <t>උතුරයි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">උතුරති </t>
+  </si>
+  <si>
+    <t>ගරමි</t>
+  </si>
+  <si>
+    <t>ගරමු</t>
+  </si>
+  <si>
+    <t>ගරයි</t>
+  </si>
+  <si>
+    <t>ගරති</t>
+  </si>
+  <si>
+    <t xml:space="preserve">කැඩුවා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පිළිගත්තා       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇමුණුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගොඩනැගුවා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පිළිස්සුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇල්ලුවා    </t>
+  </si>
+  <si>
+    <t>තේරුවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">හෑරුවා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැක්කා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැටුනා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පියෑඹුවා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">හැංගුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැවැත්වුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">එසවුවා   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැරදුනා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දිනුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">මුණගැසෙනවා </t>
+  </si>
+  <si>
+    <t>මුණගැසෙමි</t>
+  </si>
+  <si>
+    <t>මුණගැසෙමු</t>
+  </si>
+  <si>
+    <t>මුණගැසෙයි</t>
+  </si>
+  <si>
+    <t>මුණගැසෙති</t>
+  </si>
+  <si>
+    <t xml:space="preserve">මුණගැසුනා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගෙවුවා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැද්දා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">නැග්ගා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">බැස්සා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">බැන්නා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැහුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇඩුවා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සිනාසුනා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">රැව්වා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">රගපෑවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">යැව්වා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙන්නුවා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">නැගිට්ටා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දිවුරුවා    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇමතුවා        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පිහිනුවා      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සැලුවා     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සිතුවා     </t>
+  </si>
+  <si>
+    <t>සගවනවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">සගවමි </t>
+  </si>
+  <si>
+    <t>සගවමු</t>
+  </si>
+  <si>
+    <t>සගවයි</t>
+  </si>
+  <si>
+    <t>සගවති</t>
+  </si>
+  <si>
+    <t>සැගෙව්වා</t>
+  </si>
+  <si>
+    <t>වැළැක්වුවා</t>
+  </si>
+  <si>
+    <t>ගිලුනා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">තැම්බුවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැන්නා     </t>
+  </si>
+  <si>
+    <t>නැරඹුවා</t>
+  </si>
+  <si>
+    <t>ඉතුරුවා</t>
+  </si>
+  <si>
+    <t>ගැරුවා</t>
+  </si>
+  <si>
+    <t>කැඩුවෙමි</t>
+  </si>
+  <si>
+    <t>කැඩුවෙමු</t>
+  </si>
+  <si>
+    <t>කැඩුවේය</t>
+  </si>
+  <si>
+    <t>කැඩුවාය</t>
+  </si>
+  <si>
+    <t>කැඩුවෝය</t>
+  </si>
+  <si>
+    <t>පිළිගත්තෙමි</t>
+  </si>
+  <si>
+    <t>පිළිගත්තෙමු</t>
+  </si>
+  <si>
+    <t>පිළිගත්තේය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පිළිගත්තාය </t>
+  </si>
+  <si>
+    <t>පිළිගත්තෝය</t>
+  </si>
+  <si>
+    <t>ඇමුණුවෙමි</t>
+  </si>
+  <si>
+    <t>ඇමුණුවෙමු</t>
+  </si>
+  <si>
+    <t>ඇමුණුවේය</t>
+  </si>
+  <si>
+    <t>ඇමුණුවාය</t>
+  </si>
+  <si>
+    <t>ඇමුණුවෝය</t>
+  </si>
+  <si>
+    <t>ගොඩනැගුවෙමි</t>
+  </si>
+  <si>
+    <t>ගොඩනැගුවෙමු</t>
+  </si>
+  <si>
+    <t>ගොඩනැගුවේය</t>
+  </si>
+  <si>
+    <t>ගොඩනැගුවාය</t>
+  </si>
+  <si>
+    <t>ගොඩනැගුවෝය</t>
+  </si>
+  <si>
+    <t>පිළිස්සුවෙමි</t>
+  </si>
+  <si>
+    <t>පිළිස්සුවෙමු</t>
+  </si>
+  <si>
+    <t>පිළිස්සුවේය</t>
+  </si>
+  <si>
+    <t>පිළිස්සුවාය</t>
+  </si>
+  <si>
+    <t>පිළිස්සුවෝය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇල්ලුවෙමි </t>
+  </si>
+  <si>
+    <t>ඇල්ලුවෙමු</t>
+  </si>
+  <si>
+    <t>ඇල්ලුවේය</t>
+  </si>
+  <si>
+    <t>ඇල්ලුවාය</t>
+  </si>
+  <si>
+    <t>ඇල්ලුවෝය</t>
+  </si>
+  <si>
+    <t>තේරුවෙමි</t>
+  </si>
+  <si>
+    <t>තේරුවෙමු</t>
+  </si>
+  <si>
+    <t>තේරුවේය</t>
+  </si>
+  <si>
+    <t>තේරුවාය</t>
+  </si>
+  <si>
+    <t>තේරුවෝය</t>
+  </si>
+  <si>
+    <t>හෑරුවෙමි</t>
+  </si>
+  <si>
+    <t>හෑරුවෙමු</t>
+  </si>
+  <si>
+    <t>හෑරුවේය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">හෑරුවාය </t>
+  </si>
+  <si>
+    <t>හෑරුවෝය</t>
+  </si>
+  <si>
+    <t>දැක්කෙමි</t>
+  </si>
+  <si>
+    <t>වැටුනෙමි</t>
+  </si>
+  <si>
+    <t>දැක්කෙමු</t>
+  </si>
+  <si>
+    <t>දැක්කේය</t>
+  </si>
+  <si>
+    <t>දැක්කාය</t>
+  </si>
+  <si>
+    <t>දැක්කෝය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැටුනෙමු </t>
+  </si>
+  <si>
+    <t>වැටුනේය</t>
+  </si>
+  <si>
+    <t>වැටුනාය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැටුනෝය </t>
+  </si>
+  <si>
+    <t>පියෑඹුවෙමි</t>
+  </si>
+  <si>
+    <t>එසවුවෙමි</t>
+  </si>
+  <si>
+    <t>පියෑඹුවෙමු</t>
+  </si>
+  <si>
+    <t>පියෑඹුවේය</t>
+  </si>
+  <si>
+    <t>පියෑඹුවාය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පියෑඹුවෝය </t>
+  </si>
+  <si>
+    <t>හැංගුවෙමි</t>
+  </si>
+  <si>
+    <t>හැංගුවෙමු</t>
+  </si>
+  <si>
+    <t>හැංගුවේය</t>
+  </si>
+  <si>
+    <t>හැංගුවාය</t>
+  </si>
+  <si>
+    <t>හැංගුවෝය</t>
+  </si>
+  <si>
+    <t>පැවැත්වුවෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැවැත්වුවෙමු </t>
+  </si>
+  <si>
+    <t>එසවුවෙමු</t>
+  </si>
+  <si>
+    <t>දිනුවෙමු</t>
+  </si>
+  <si>
+    <t>පැවැත්වුවේය</t>
+  </si>
+  <si>
+    <t>පැවැත්වුවාය</t>
+  </si>
+  <si>
+    <t>පැවැත්වුවෝය</t>
+  </si>
+  <si>
+    <t>එසවුවේය</t>
+  </si>
+  <si>
+    <t>එසවුවාය</t>
+  </si>
+  <si>
+    <t>එසවුවෝය</t>
+  </si>
+  <si>
+    <t>පැරදුනෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැරදුනෙමු </t>
+  </si>
+  <si>
+    <t>පැරදුනේය</t>
+  </si>
+  <si>
+    <t>පැරදුනාය</t>
+  </si>
+  <si>
+    <t>පැරදුනෝය</t>
+  </si>
+  <si>
+    <t>දිනුවෙමි</t>
+  </si>
+  <si>
+    <t>දිනුවේය</t>
+  </si>
+  <si>
+    <t>දිනුවාය</t>
+  </si>
+  <si>
+    <t>දිනුවෝය</t>
+  </si>
+  <si>
+    <t>මුණගැසුනෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">මුණගැසුනෙමු </t>
+  </si>
+  <si>
+    <t>මුණගැසුනේය</t>
+  </si>
+  <si>
+    <t>මුණගැසුනාය</t>
+  </si>
+  <si>
+    <t>මුණගැසුනෝය</t>
+  </si>
+  <si>
+    <t>ගෙවුවෝය</t>
+  </si>
+  <si>
+    <t>පැද්දෝය</t>
+  </si>
+  <si>
+    <t>ගෙවුවෙමි</t>
+  </si>
+  <si>
+    <t>ගෙවුවෙමු</t>
+  </si>
+  <si>
+    <t>ගෙවුවේය</t>
+  </si>
+  <si>
+    <t>ගෙවුවාය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පැද්දෙමි </t>
+  </si>
+  <si>
+    <t>පැද්දෙමු</t>
+  </si>
+  <si>
+    <t>පැද්දේය</t>
+  </si>
+  <si>
+    <t>නැග්ගෝය</t>
+  </si>
+  <si>
+    <t>බැස්සෝය</t>
+  </si>
+  <si>
+    <t>බැන්නෝය</t>
+  </si>
+  <si>
+    <t>ගැහුවෝය</t>
+  </si>
+  <si>
+    <t>පැද්දාය</t>
+  </si>
+  <si>
+    <t>නැග්ගෙමි</t>
+  </si>
+  <si>
+    <t>නැග්ගෙමු</t>
+  </si>
+  <si>
+    <t>නැග්ගේය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">නැග්ගාය </t>
+  </si>
+  <si>
+    <t>බැස්සෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">බැස්සෙමු </t>
+  </si>
+  <si>
+    <t>බැස්සේය</t>
+  </si>
+  <si>
+    <t>බැස්සාය</t>
+  </si>
+  <si>
+    <t>බැන්නෙමි</t>
+  </si>
+  <si>
+    <t>බැන්නෙමු</t>
+  </si>
+  <si>
+    <t>බැන්නේය</t>
+  </si>
+  <si>
+    <t>බැන්නාය</t>
+  </si>
+  <si>
+    <t>ගැහුවෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැහුවෙමු </t>
+  </si>
+  <si>
+    <t>ගැහුවේය</t>
+  </si>
+  <si>
+    <t>ගැහුවාය</t>
+  </si>
+  <si>
+    <t>ඇඩුවෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇඩුවෙමු </t>
+  </si>
+  <si>
+    <t>ඇඩුවේය</t>
+  </si>
+  <si>
+    <t>ඇඩුවාය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ඇඩුවෝය </t>
+  </si>
+  <si>
+    <t>සිනාසුනෙමි</t>
+  </si>
+  <si>
+    <t>සිනාසුනෙමු</t>
+  </si>
+  <si>
+    <t>සිනාසුනේය</t>
+  </si>
+  <si>
+    <t>සිනාසුනාය</t>
+  </si>
+  <si>
+    <t>සිනාසුනෝය</t>
+  </si>
+  <si>
+    <t>රැව්වෙමි</t>
+  </si>
+  <si>
+    <t>රැව්වේය</t>
+  </si>
+  <si>
+    <t>රැව්වාය</t>
+  </si>
+  <si>
+    <t>රැව්වෝය</t>
+  </si>
+  <si>
+    <t>රගපෑවෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">රගපෑවෙමු        </t>
+  </si>
+  <si>
+    <t>රගපෑවේය</t>
+  </si>
+  <si>
+    <t>රගපෑවාය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">රගපෑවෝය </t>
+  </si>
+  <si>
+    <t>යැව්වෙමි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">යැව්වෙමු </t>
+  </si>
+  <si>
+    <t>යැව්වේය</t>
+  </si>
+  <si>
+    <t>යැව්වාය</t>
+  </si>
+  <si>
+    <t>යැව්වෝය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙන්නුවෙමි </t>
+  </si>
+  <si>
+    <t>පෙන්නුවෙමු</t>
+  </si>
+  <si>
+    <t>පෙන්නුවේය</t>
+  </si>
+  <si>
+    <t>පෙන්නුවාය</t>
+  </si>
+  <si>
+    <t>පෙන්නුවෝය</t>
+  </si>
+  <si>
+    <t>නැගිට්ටෙමි</t>
+  </si>
+  <si>
+    <t>නැගිට්ටෙමු</t>
+  </si>
+  <si>
+    <t>නැගිට්ටේය</t>
+  </si>
+  <si>
+    <t>නැගිට්ටාය</t>
+  </si>
+  <si>
+    <t>නැගිට්ටෝය</t>
+  </si>
+  <si>
+    <t>දිවුරුවෙමි</t>
+  </si>
+  <si>
+    <t>දිවුරුවෙමු</t>
+  </si>
+  <si>
+    <t>දිවුරුවේය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">දිවුරුවාය </t>
+  </si>
+  <si>
+    <t>දිවුරුවෝය</t>
+  </si>
+  <si>
+    <t>ඇමතුවෙමි</t>
+  </si>
+  <si>
+    <t>ඇමතුවෙමු</t>
+  </si>
+  <si>
+    <t>ඇමතුවේය</t>
+  </si>
+  <si>
+    <t>ඇමතුවාය</t>
+  </si>
+  <si>
+    <t>ඇමතුවෝය</t>
+  </si>
+  <si>
+    <t>පිහිනුවෙමි</t>
+  </si>
+  <si>
+    <t>පිහිනුවෙමු</t>
+  </si>
+  <si>
+    <t>පිහිනුවේය</t>
+  </si>
+  <si>
+    <t>පිහිනුවාය</t>
+  </si>
+  <si>
+    <t>පිහිනුවෝය</t>
+  </si>
+  <si>
+    <t>සැලුවෙමි</t>
+  </si>
+  <si>
+    <t>සැලුවෙමු</t>
+  </si>
+  <si>
+    <t>සැලුවේය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">සැලුවාය       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සැලුවෝය </t>
+  </si>
+  <si>
+    <t>සිතුවෙමි</t>
+  </si>
+  <si>
+    <t>සිතුවෙමු</t>
+  </si>
+  <si>
+    <t>සිතුවේය</t>
+  </si>
+  <si>
+    <t>සිතුවාය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">සිතුවෝය </t>
+  </si>
+  <si>
+    <t>සැගෙව්වෙමි</t>
+  </si>
+  <si>
+    <t>සැගෙව්වෙමු</t>
+  </si>
+  <si>
+    <t>සැගෙව්වේය</t>
+  </si>
+  <si>
+    <t xml:space="preserve">සැගෙව්වාය            </t>
+  </si>
+  <si>
+    <t>සැගෙව්වෝය</t>
+  </si>
+  <si>
+    <t>වැළැක්වුවෙමි</t>
+  </si>
+  <si>
+    <t>වැළැක්වුවෙමු</t>
+  </si>
+  <si>
+    <t>වැළැක්වුවේය</t>
+  </si>
+  <si>
+    <t>වැළැක්වුවාය</t>
+  </si>
+  <si>
+    <t>වැළැක්වුවෝය</t>
+  </si>
+  <si>
+    <t>ගිලුනෙමි</t>
+  </si>
+  <si>
+    <t>ගිලුනෙමු</t>
+  </si>
+  <si>
+    <t>ගිලුනේය</t>
+  </si>
+  <si>
+    <t>ගිලුනාය</t>
+  </si>
+  <si>
+    <t>ගිලුනෝය</t>
+  </si>
+  <si>
+    <t>තැම්බුවෙමි</t>
+  </si>
+  <si>
+    <t>තැම්බුවෙමු</t>
+  </si>
+  <si>
+    <t>තැම්බුවේය</t>
+  </si>
+  <si>
+    <t>තැම්බුවාය</t>
+  </si>
+  <si>
+    <t>තැම්බුවෝය</t>
+  </si>
+  <si>
+    <t>පැන්නෙමි</t>
+  </si>
+  <si>
+    <t>පැන්නෙමු</t>
+  </si>
+  <si>
+    <t>පැන්නේය</t>
+  </si>
+  <si>
+    <t>පැන්නාය</t>
+  </si>
+  <si>
+    <t>පැන්නෝය</t>
+  </si>
+  <si>
+    <t>නැරඹුවෙමි</t>
+  </si>
+  <si>
+    <t>නැරඹුවෙමු</t>
+  </si>
+  <si>
+    <t>නැරඹුවේය</t>
+  </si>
+  <si>
+    <t>නැරඹුවාය</t>
+  </si>
+  <si>
+    <t>නැරඹුවෝය</t>
+  </si>
+  <si>
+    <t>ඉතුරුවෙමි</t>
+  </si>
+  <si>
+    <t>ඉතුරුවෙමු</t>
+  </si>
+  <si>
+    <t>ඉතුරුවේය</t>
+  </si>
+  <si>
+    <t>ඉතුරුවාය</t>
+  </si>
+  <si>
+    <t>ඉතුරුවෝය</t>
+  </si>
+  <si>
+    <t>ගැරුවෙමි</t>
+  </si>
+  <si>
+    <t>ගැරුවෙමු</t>
+  </si>
+  <si>
+    <t>ගැරුවේය</t>
+  </si>
+  <si>
+    <t>ගැරුවාය</t>
+  </si>
+  <si>
+    <t>ගැරුවෝය</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,14 +2376,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1219,6 +2399,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="60893325"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,17 +2718,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+      <selection activeCell="F351" sqref="F351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
@@ -1504,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1521,16 +2755,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,16 +2772,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,16 +2789,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,16 +2806,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,16 +2823,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,16 +2840,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,16 +2857,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,16 +2874,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,16 +2891,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,16 +2925,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,16 +2942,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,16 +2959,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,16 +2976,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,101 +2993,101 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,16 +3095,16 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,16 +3112,16 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,16 +3129,16 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,16 +3146,16 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,16 +3163,16 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,16 +3180,16 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,16 +3197,16 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,16 +3214,16 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,16 +3231,16 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,16 +3248,16 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,16 +3265,16 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,16 +3282,16 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,16 +3299,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,16 +3316,16 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" t="s">
-        <v>109</v>
-      </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,16 +3333,16 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,16 +3350,16 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,16 +3367,16 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,16 +3384,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,16 +3401,16 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,2144 +3418,5291 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
         <v>20</v>
       </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>20</v>
       </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s">
-        <v>130</v>
-      </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>131</v>
-      </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
-      </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>140</v>
-      </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>141</v>
-      </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" t="s">
-        <v>142</v>
-      </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="C67" t="s">
-        <v>165</v>
-      </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
         <v>28</v>
       </c>
-      <c r="C68" t="s">
-        <v>166</v>
-      </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" t="s">
         <v>28</v>
       </c>
-      <c r="C69" t="s">
-        <v>167</v>
-      </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
         <v>28</v>
       </c>
-      <c r="C70" t="s">
-        <v>168</v>
-      </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
         <v>28</v>
       </c>
-      <c r="C71" t="s">
-        <v>169</v>
-      </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="E84" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="E85" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E90" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E92" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B97" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C97" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="D99" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="E99" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="D101" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E102" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E103" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E105" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E106" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E107" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E108" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E109" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E110" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D111" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E111" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="E113" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="C115" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="E115" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D116" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D117" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="E117" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D118" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="E118" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D120" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="C121" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="C123" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D123" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E123" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D124" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E124" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D125" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E125" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="C126" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E126" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D128" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E128" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D129" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E129" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="D130" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E130" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D131" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E131" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="D132" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B133" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="D133" t="s">
         <v>280</v>
       </c>
       <c r="E133" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="C134" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D134" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E134" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="D135" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E135" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="D136" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E136" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>294</v>
-      </c>
-      <c r="B137" t="s">
-        <v>295</v>
+        <v>504</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="C137" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="E137" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="C138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="E138" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>559</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D139" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="E139" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>560</v>
       </c>
       <c r="C140" t="s">
         <v>299</v>
       </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="E140" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>561</v>
       </c>
       <c r="C141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D141" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="E141" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="B142" t="s">
-        <v>326</v>
+        <v>562</v>
       </c>
       <c r="C142" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D142" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E142" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>563</v>
       </c>
       <c r="C143" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="D143" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E143" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>564</v>
       </c>
       <c r="C144" t="s">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
         <v>346</v>
       </c>
-      <c r="D144" t="s">
-        <v>371</v>
-      </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>565</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="D145" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="E145" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="B146" t="s">
-        <v>326</v>
+        <v>566</v>
       </c>
       <c r="C146" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="D146" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B147" t="s">
-        <v>327</v>
+        <v>567</v>
       </c>
       <c r="C147" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B148" t="s">
-        <v>327</v>
+        <v>568</v>
       </c>
       <c r="C148" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D148" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="E148" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>569</v>
       </c>
       <c r="C149" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="D149" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B150" t="s">
-        <v>327</v>
+        <v>570</v>
       </c>
       <c r="C150" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="D150" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E150" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>571</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="D151" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="B152" t="s">
-        <v>328</v>
+        <v>572</v>
       </c>
       <c r="C152" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="D152" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="B153" t="s">
-        <v>328</v>
+        <v>573</v>
       </c>
       <c r="C153" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="D153" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E153" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
+        <v>574</v>
       </c>
       <c r="C154" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="D154" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="B155" t="s">
-        <v>328</v>
+        <v>575</v>
       </c>
       <c r="C155" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="D155" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E155" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="B156" t="s">
-        <v>328</v>
+        <v>576</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D156" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E156" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B157" t="s">
-        <v>329</v>
+        <v>577</v>
       </c>
       <c r="C157" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="D157" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E157" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B158" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="C158" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="D158" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E158" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>579</v>
       </c>
       <c r="C159" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E159" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B160" t="s">
-        <v>329</v>
+        <v>580</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="D160" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E160" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>581</v>
       </c>
       <c r="C161" t="s">
+        <v>303</v>
+      </c>
+      <c r="D161" t="s">
         <v>359</v>
       </c>
-      <c r="D161" t="s">
-        <v>378</v>
-      </c>
       <c r="E161" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>582</v>
       </c>
       <c r="C162" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="D162" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="B163" t="s">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="C163" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E163" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="B164" t="s">
-        <v>330</v>
+        <v>584</v>
       </c>
       <c r="C164" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="D164" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E164" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
       <c r="C165" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="D165" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="E165" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>509</v>
+      </c>
+      <c r="B166" t="s">
+        <v>586</v>
+      </c>
+      <c r="C166" t="s">
+        <v>304</v>
+      </c>
+      <c r="D166" t="s">
+        <v>363</v>
+      </c>
+      <c r="E166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>510</v>
+      </c>
+      <c r="B167" t="s">
+        <v>587</v>
+      </c>
+      <c r="C167" t="s">
+        <v>305</v>
+      </c>
+      <c r="D167" t="s">
+        <v>364</v>
+      </c>
+      <c r="E167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>510</v>
+      </c>
+      <c r="B168" t="s">
+        <v>588</v>
+      </c>
+      <c r="C168" t="s">
+        <v>305</v>
+      </c>
+      <c r="D168" t="s">
+        <v>365</v>
+      </c>
+      <c r="E168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>510</v>
+      </c>
+      <c r="B169" t="s">
+        <v>589</v>
+      </c>
+      <c r="C169" t="s">
+        <v>305</v>
+      </c>
+      <c r="D169" t="s">
+        <v>366</v>
+      </c>
+      <c r="E169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>510</v>
+      </c>
+      <c r="B170" t="s">
+        <v>590</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>510</v>
+      </c>
+      <c r="B171" t="s">
+        <v>591</v>
+      </c>
+      <c r="C171" t="s">
+        <v>305</v>
+      </c>
+      <c r="D171" t="s">
+        <v>367</v>
+      </c>
+      <c r="E171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>511</v>
+      </c>
+      <c r="B172" t="s">
+        <v>592</v>
+      </c>
+      <c r="C172" t="s">
+        <v>306</v>
+      </c>
+      <c r="D172" t="s">
+        <v>368</v>
+      </c>
+      <c r="E172" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>511</v>
+      </c>
+      <c r="B173" t="s">
+        <v>593</v>
+      </c>
+      <c r="C173" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" t="s">
+        <v>369</v>
+      </c>
+      <c r="E173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>511</v>
+      </c>
+      <c r="B174" t="s">
+        <v>594</v>
+      </c>
+      <c r="C174" t="s">
+        <v>306</v>
+      </c>
+      <c r="D174" t="s">
+        <v>370</v>
+      </c>
+      <c r="E174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>511</v>
+      </c>
+      <c r="B175" t="s">
+        <v>595</v>
+      </c>
+      <c r="C175" t="s">
+        <v>306</v>
+      </c>
+      <c r="D175" t="s">
+        <v>370</v>
+      </c>
+      <c r="E175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>511</v>
+      </c>
+      <c r="B176" t="s">
+        <v>596</v>
+      </c>
+      <c r="C176" t="s">
+        <v>306</v>
+      </c>
+      <c r="D176" t="s">
+        <v>371</v>
+      </c>
+      <c r="E176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>512</v>
+      </c>
+      <c r="B177" t="s">
+        <v>597</v>
+      </c>
+      <c r="C177" t="s">
+        <v>307</v>
+      </c>
+      <c r="D177" t="s">
+        <v>373</v>
+      </c>
+      <c r="E177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>512</v>
+      </c>
+      <c r="B178" t="s">
+        <v>599</v>
+      </c>
+      <c r="C178" t="s">
+        <v>307</v>
+      </c>
+      <c r="D178" t="s">
+        <v>374</v>
+      </c>
+      <c r="E178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>512</v>
+      </c>
+      <c r="B179" t="s">
+        <v>600</v>
+      </c>
+      <c r="C179" t="s">
+        <v>307</v>
+      </c>
+      <c r="D179" t="s">
+        <v>375</v>
+      </c>
+      <c r="E179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>512</v>
+      </c>
+      <c r="B180" t="s">
+        <v>601</v>
+      </c>
+      <c r="C180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D180" t="s">
+        <v>375</v>
+      </c>
+      <c r="E180" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>512</v>
+      </c>
+      <c r="B181" t="s">
+        <v>602</v>
+      </c>
+      <c r="C181" t="s">
+        <v>307</v>
+      </c>
+      <c r="D181" t="s">
+        <v>376</v>
+      </c>
+      <c r="E181" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>513</v>
+      </c>
+      <c r="B182" t="s">
+        <v>598</v>
+      </c>
+      <c r="C182" t="s">
+        <v>308</v>
+      </c>
+      <c r="D182" t="s">
+        <v>377</v>
+      </c>
+      <c r="E182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>513</v>
+      </c>
+      <c r="B183" t="s">
+        <v>603</v>
+      </c>
+      <c r="C183" t="s">
+        <v>308</v>
+      </c>
+      <c r="D183" t="s">
+        <v>378</v>
+      </c>
+      <c r="E183" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>513</v>
+      </c>
+      <c r="B184" t="s">
+        <v>604</v>
+      </c>
+      <c r="C184" t="s">
+        <v>308</v>
+      </c>
+      <c r="D184" t="s">
+        <v>379</v>
+      </c>
+      <c r="E184" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>513</v>
+      </c>
+      <c r="B185" t="s">
+        <v>605</v>
+      </c>
+      <c r="C185" t="s">
+        <v>308</v>
+      </c>
+      <c r="D185" t="s">
+        <v>379</v>
+      </c>
+      <c r="E185" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>513</v>
+      </c>
+      <c r="B186" t="s">
+        <v>606</v>
+      </c>
+      <c r="C186" t="s">
+        <v>308</v>
+      </c>
+      <c r="D186" t="s">
+        <v>380</v>
+      </c>
+      <c r="E186" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>514</v>
+      </c>
+      <c r="B187" t="s">
+        <v>607</v>
+      </c>
+      <c r="C187" t="s">
+        <v>339</v>
+      </c>
+      <c r="D187" t="s">
+        <v>372</v>
+      </c>
+      <c r="E187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>514</v>
+      </c>
+      <c r="B188" t="s">
+        <v>609</v>
+      </c>
+      <c r="C188" t="s">
+        <v>339</v>
+      </c>
+      <c r="D188" t="s">
+        <v>381</v>
+      </c>
+      <c r="E188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>514</v>
+      </c>
+      <c r="B189" t="s">
+        <v>610</v>
+      </c>
+      <c r="C189" t="s">
+        <v>339</v>
+      </c>
+      <c r="D189" t="s">
+        <v>382</v>
+      </c>
+      <c r="E189" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>514</v>
+      </c>
+      <c r="B190" t="s">
+        <v>611</v>
+      </c>
+      <c r="C190" t="s">
+        <v>339</v>
+      </c>
+      <c r="D190" t="s">
+        <v>382</v>
+      </c>
+      <c r="E190" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>514</v>
+      </c>
+      <c r="B191" t="s">
+        <v>612</v>
+      </c>
+      <c r="C191" t="s">
+        <v>339</v>
+      </c>
+      <c r="D191" t="s">
+        <v>383</v>
+      </c>
+      <c r="E191" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>515</v>
+      </c>
+      <c r="B192" t="s">
+        <v>613</v>
+      </c>
+      <c r="C192" t="s">
+        <v>309</v>
+      </c>
+      <c r="D192" t="s">
+        <v>384</v>
+      </c>
+      <c r="E192" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>515</v>
+      </c>
+      <c r="B193" t="s">
+        <v>614</v>
+      </c>
+      <c r="C193" t="s">
+        <v>309</v>
+      </c>
+      <c r="D193" t="s">
+        <v>385</v>
+      </c>
+      <c r="E193" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>515</v>
+      </c>
+      <c r="B194" t="s">
+        <v>615</v>
+      </c>
+      <c r="C194" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" t="s">
+        <v>386</v>
+      </c>
+      <c r="E194" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>515</v>
+      </c>
+      <c r="B195" t="s">
+        <v>616</v>
+      </c>
+      <c r="C195" t="s">
+        <v>309</v>
+      </c>
+      <c r="D195" t="s">
+        <v>386</v>
+      </c>
+      <c r="E195" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>515</v>
+      </c>
+      <c r="B196" t="s">
+        <v>617</v>
+      </c>
+      <c r="C196" t="s">
+        <v>309</v>
+      </c>
+      <c r="D196" t="s">
+        <v>387</v>
+      </c>
+      <c r="E196" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>516</v>
+      </c>
+      <c r="B197" t="s">
+        <v>618</v>
+      </c>
+      <c r="C197" t="s">
+        <v>310</v>
+      </c>
+      <c r="D197" t="s">
+        <v>388</v>
+      </c>
+      <c r="E197" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>516</v>
+      </c>
+      <c r="B198" t="s">
+        <v>619</v>
+      </c>
+      <c r="C198" t="s">
+        <v>310</v>
+      </c>
+      <c r="D198" t="s">
+        <v>389</v>
+      </c>
+      <c r="E198" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199" t="s">
+        <v>622</v>
+      </c>
+      <c r="C199" t="s">
+        <v>310</v>
+      </c>
+      <c r="D199" t="s">
+        <v>390</v>
+      </c>
+      <c r="E199" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>516</v>
+      </c>
+      <c r="B200" t="s">
+        <v>623</v>
+      </c>
+      <c r="C200" t="s">
+        <v>310</v>
+      </c>
+      <c r="D200" t="s">
+        <v>390</v>
+      </c>
+      <c r="E200" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>516</v>
+      </c>
+      <c r="B201" t="s">
+        <v>624</v>
+      </c>
+      <c r="C201" t="s">
+        <v>310</v>
+      </c>
+      <c r="D201" t="s">
+        <v>391</v>
+      </c>
+      <c r="E201" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>517</v>
+      </c>
+      <c r="B202" t="s">
+        <v>608</v>
+      </c>
+      <c r="C202" t="s">
+        <v>311</v>
+      </c>
+      <c r="D202" t="s">
+        <v>392</v>
+      </c>
+      <c r="E202" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>517</v>
+      </c>
+      <c r="B203" t="s">
+        <v>620</v>
+      </c>
+      <c r="C203" t="s">
+        <v>311</v>
+      </c>
+      <c r="D203" t="s">
+        <v>393</v>
+      </c>
+      <c r="E203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>517</v>
+      </c>
+      <c r="B204" t="s">
+        <v>625</v>
+      </c>
+      <c r="C204" t="s">
+        <v>311</v>
+      </c>
+      <c r="D204" t="s">
+        <v>394</v>
+      </c>
+      <c r="E204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>517</v>
+      </c>
+      <c r="B205" t="s">
+        <v>626</v>
+      </c>
+      <c r="C205" t="s">
+        <v>311</v>
+      </c>
+      <c r="D205" t="s">
+        <v>394</v>
+      </c>
+      <c r="E205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>517</v>
+      </c>
+      <c r="B206" t="s">
+        <v>627</v>
+      </c>
+      <c r="C206" t="s">
+        <v>311</v>
+      </c>
+      <c r="D206" t="s">
+        <v>395</v>
+      </c>
+      <c r="E206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>518</v>
+      </c>
+      <c r="B207" t="s">
+        <v>628</v>
+      </c>
+      <c r="C207" t="s">
+        <v>312</v>
+      </c>
+      <c r="D207" t="s">
+        <v>396</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>518</v>
+      </c>
+      <c r="B208" t="s">
+        <v>629</v>
+      </c>
+      <c r="C208" t="s">
+        <v>312</v>
+      </c>
+      <c r="D208" t="s">
+        <v>397</v>
+      </c>
+      <c r="E208" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>518</v>
+      </c>
+      <c r="B209" t="s">
+        <v>630</v>
+      </c>
+      <c r="C209" t="s">
+        <v>312</v>
+      </c>
+      <c r="D209" t="s">
+        <v>398</v>
+      </c>
+      <c r="E209" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>518</v>
+      </c>
+      <c r="B210" t="s">
+        <v>631</v>
+      </c>
+      <c r="C210" t="s">
+        <v>312</v>
+      </c>
+      <c r="D210" t="s">
+        <v>398</v>
+      </c>
+      <c r="E210" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>518</v>
+      </c>
+      <c r="B211" t="s">
+        <v>632</v>
+      </c>
+      <c r="C211" t="s">
+        <v>312</v>
+      </c>
+      <c r="D211" t="s">
+        <v>399</v>
+      </c>
+      <c r="E211" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>519</v>
+      </c>
+      <c r="B212" t="s">
+        <v>633</v>
+      </c>
+      <c r="C212" t="s">
+        <v>313</v>
+      </c>
+      <c r="D212" t="s">
+        <v>400</v>
+      </c>
+      <c r="E212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>519</v>
+      </c>
+      <c r="B213" t="s">
+        <v>621</v>
+      </c>
+      <c r="C213" t="s">
+        <v>313</v>
+      </c>
+      <c r="D213" t="s">
+        <v>401</v>
+      </c>
+      <c r="E213" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>519</v>
+      </c>
+      <c r="B214" t="s">
+        <v>634</v>
+      </c>
+      <c r="C214" t="s">
+        <v>313</v>
+      </c>
+      <c r="D214" t="s">
+        <v>402</v>
+      </c>
+      <c r="E214" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>519</v>
+      </c>
+      <c r="B215" t="s">
+        <v>635</v>
+      </c>
+      <c r="C215" t="s">
+        <v>313</v>
+      </c>
+      <c r="D215" t="s">
+        <v>402</v>
+      </c>
+      <c r="E215" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>519</v>
+      </c>
+      <c r="B216" t="s">
+        <v>636</v>
+      </c>
+      <c r="C216" t="s">
+        <v>313</v>
+      </c>
+      <c r="D216" t="s">
+        <v>403</v>
+      </c>
+      <c r="E216" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>525</v>
+      </c>
+      <c r="B217" t="s">
+        <v>637</v>
+      </c>
+      <c r="C217" t="s">
+        <v>520</v>
+      </c>
+      <c r="D217" t="s">
+        <v>521</v>
+      </c>
+      <c r="E217" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>525</v>
+      </c>
+      <c r="B218" t="s">
+        <v>638</v>
+      </c>
+      <c r="C218" t="s">
+        <v>520</v>
+      </c>
+      <c r="D218" t="s">
+        <v>522</v>
+      </c>
+      <c r="E218" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>525</v>
+      </c>
+      <c r="B219" t="s">
+        <v>639</v>
+      </c>
+      <c r="C219" t="s">
+        <v>520</v>
+      </c>
+      <c r="D219" t="s">
+        <v>523</v>
+      </c>
+      <c r="E219" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>525</v>
+      </c>
+      <c r="B220" t="s">
+        <v>640</v>
+      </c>
+      <c r="C220" t="s">
+        <v>520</v>
+      </c>
+      <c r="D220" t="s">
+        <v>523</v>
+      </c>
+      <c r="E220" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>525</v>
+      </c>
+      <c r="B221" t="s">
+        <v>641</v>
+      </c>
+      <c r="C221" t="s">
+        <v>520</v>
+      </c>
+      <c r="D221" t="s">
+        <v>524</v>
+      </c>
+      <c r="E221" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>526</v>
+      </c>
+      <c r="B222" t="s">
+        <v>644</v>
+      </c>
+      <c r="C222" t="s">
+        <v>314</v>
+      </c>
+      <c r="D222" t="s">
+        <v>404</v>
+      </c>
+      <c r="E222" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>526</v>
+      </c>
+      <c r="B223" t="s">
+        <v>645</v>
+      </c>
+      <c r="C223" t="s">
+        <v>314</v>
+      </c>
+      <c r="D223" t="s">
+        <v>405</v>
+      </c>
+      <c r="E223" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>526</v>
+      </c>
+      <c r="B224" t="s">
+        <v>646</v>
+      </c>
+      <c r="C224" t="s">
+        <v>314</v>
+      </c>
+      <c r="D224" t="s">
+        <v>406</v>
+      </c>
+      <c r="E224" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>526</v>
+      </c>
+      <c r="B225" t="s">
+        <v>647</v>
+      </c>
+      <c r="C225" t="s">
+        <v>314</v>
+      </c>
+      <c r="D225" t="s">
+        <v>406</v>
+      </c>
+      <c r="E225" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>526</v>
+      </c>
+      <c r="B226" t="s">
+        <v>642</v>
+      </c>
+      <c r="C226" t="s">
+        <v>314</v>
+      </c>
+      <c r="D226" t="s">
+        <v>407</v>
+      </c>
+      <c r="E226" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>527</v>
+      </c>
+      <c r="B227" t="s">
+        <v>648</v>
+      </c>
+      <c r="C227" t="s">
+        <v>315</v>
+      </c>
+      <c r="D227" t="s">
+        <v>408</v>
+      </c>
+      <c r="E227" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>527</v>
+      </c>
+      <c r="B228" t="s">
+        <v>649</v>
+      </c>
+      <c r="C228" t="s">
+        <v>315</v>
+      </c>
+      <c r="D228" t="s">
+        <v>409</v>
+      </c>
+      <c r="E228" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>527</v>
+      </c>
+      <c r="B229" t="s">
+        <v>650</v>
+      </c>
+      <c r="C229" t="s">
+        <v>315</v>
+      </c>
+      <c r="D229" t="s">
+        <v>410</v>
+      </c>
+      <c r="E229" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>527</v>
+      </c>
+      <c r="B230" t="s">
+        <v>655</v>
+      </c>
+      <c r="C230" t="s">
+        <v>315</v>
+      </c>
+      <c r="D230" t="s">
+        <v>410</v>
+      </c>
+      <c r="E230" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>527</v>
+      </c>
+      <c r="B231" t="s">
+        <v>643</v>
+      </c>
+      <c r="C231" t="s">
+        <v>315</v>
+      </c>
+      <c r="D231" t="s">
+        <v>411</v>
+      </c>
+      <c r="E231" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>528</v>
+      </c>
+      <c r="B232" t="s">
+        <v>656</v>
+      </c>
+      <c r="C232" t="s">
+        <v>316</v>
+      </c>
+      <c r="D232" t="s">
+        <v>412</v>
+      </c>
+      <c r="E232" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>528</v>
+      </c>
+      <c r="B233" t="s">
+        <v>657</v>
+      </c>
+      <c r="C233" t="s">
+        <v>316</v>
+      </c>
+      <c r="D233" t="s">
+        <v>413</v>
+      </c>
+      <c r="E233" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>528</v>
+      </c>
+      <c r="B234" t="s">
+        <v>658</v>
+      </c>
+      <c r="C234" t="s">
+        <v>316</v>
+      </c>
+      <c r="D234" t="s">
+        <v>414</v>
+      </c>
+      <c r="E234" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>528</v>
+      </c>
+      <c r="B235" t="s">
+        <v>659</v>
+      </c>
+      <c r="C235" t="s">
+        <v>316</v>
+      </c>
+      <c r="D235" t="s">
+        <v>414</v>
+      </c>
+      <c r="E235" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" t="s">
+        <v>651</v>
+      </c>
+      <c r="C236" t="s">
+        <v>316</v>
+      </c>
+      <c r="D236" t="s">
+        <v>415</v>
+      </c>
+      <c r="E236" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>529</v>
+      </c>
+      <c r="B237" t="s">
+        <v>660</v>
+      </c>
+      <c r="C237" t="s">
+        <v>317</v>
+      </c>
+      <c r="D237" t="s">
+        <v>416</v>
+      </c>
+      <c r="E237" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>529</v>
+      </c>
+      <c r="B238" t="s">
+        <v>661</v>
+      </c>
+      <c r="C238" t="s">
+        <v>317</v>
+      </c>
+      <c r="D238" t="s">
+        <v>417</v>
+      </c>
+      <c r="E238" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>529</v>
+      </c>
+      <c r="B239" t="s">
+        <v>662</v>
+      </c>
+      <c r="C239" t="s">
+        <v>317</v>
+      </c>
+      <c r="D239" t="s">
+        <v>418</v>
+      </c>
+      <c r="E239" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>529</v>
+      </c>
+      <c r="B240" t="s">
+        <v>663</v>
+      </c>
+      <c r="C240" t="s">
+        <v>317</v>
+      </c>
+      <c r="D240" t="s">
+        <v>418</v>
+      </c>
+      <c r="E240" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>529</v>
+      </c>
+      <c r="B241" t="s">
+        <v>652</v>
+      </c>
+      <c r="C241" t="s">
+        <v>317</v>
+      </c>
+      <c r="D241" t="s">
+        <v>419</v>
+      </c>
+      <c r="E241" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>530</v>
+      </c>
+      <c r="B242" t="s">
+        <v>664</v>
+      </c>
+      <c r="C242" t="s">
+        <v>318</v>
+      </c>
+      <c r="D242" t="s">
+        <v>420</v>
+      </c>
+      <c r="E242" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>530</v>
+      </c>
+      <c r="B243" t="s">
+        <v>665</v>
+      </c>
+      <c r="C243" t="s">
+        <v>318</v>
+      </c>
+      <c r="D243" t="s">
+        <v>421</v>
+      </c>
+      <c r="E243" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>530</v>
+      </c>
+      <c r="B244" t="s">
+        <v>666</v>
+      </c>
+      <c r="C244" t="s">
+        <v>318</v>
+      </c>
+      <c r="D244" t="s">
+        <v>422</v>
+      </c>
+      <c r="E244" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>530</v>
+      </c>
+      <c r="B245" t="s">
+        <v>667</v>
+      </c>
+      <c r="C245" t="s">
+        <v>318</v>
+      </c>
+      <c r="D245" t="s">
+        <v>422</v>
+      </c>
+      <c r="E245" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>530</v>
+      </c>
+      <c r="B246" t="s">
+        <v>653</v>
+      </c>
+      <c r="C246" t="s">
+        <v>318</v>
+      </c>
+      <c r="D246" t="s">
+        <v>423</v>
+      </c>
+      <c r="E246" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>531</v>
+      </c>
+      <c r="B247" t="s">
+        <v>668</v>
+      </c>
+      <c r="C247" t="s">
+        <v>319</v>
+      </c>
+      <c r="D247" t="s">
+        <v>424</v>
+      </c>
+      <c r="E247" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>531</v>
+      </c>
+      <c r="B248" t="s">
+        <v>669</v>
+      </c>
+      <c r="C248" t="s">
+        <v>319</v>
+      </c>
+      <c r="D248" t="s">
+        <v>425</v>
+      </c>
+      <c r="E248" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>531</v>
+      </c>
+      <c r="B249" t="s">
+        <v>670</v>
+      </c>
+      <c r="C249" t="s">
+        <v>319</v>
+      </c>
+      <c r="D249" t="s">
+        <v>426</v>
+      </c>
+      <c r="E249" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>531</v>
+      </c>
+      <c r="B250" t="s">
+        <v>671</v>
+      </c>
+      <c r="C250" t="s">
+        <v>319</v>
+      </c>
+      <c r="D250" t="s">
+        <v>426</v>
+      </c>
+      <c r="E250" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>531</v>
+      </c>
+      <c r="B251" t="s">
+        <v>654</v>
+      </c>
+      <c r="C251" t="s">
+        <v>319</v>
+      </c>
+      <c r="D251" t="s">
+        <v>427</v>
+      </c>
+      <c r="E251" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>532</v>
+      </c>
+      <c r="B252" t="s">
+        <v>672</v>
+      </c>
+      <c r="C252" t="s">
+        <v>320</v>
+      </c>
+      <c r="D252" t="s">
+        <v>428</v>
+      </c>
+      <c r="E252" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>532</v>
+      </c>
+      <c r="B253" t="s">
+        <v>673</v>
+      </c>
+      <c r="C253" t="s">
+        <v>320</v>
+      </c>
+      <c r="D253" t="s">
+        <v>429</v>
+      </c>
+      <c r="E253" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>532</v>
+      </c>
+      <c r="B254" t="s">
+        <v>674</v>
+      </c>
+      <c r="C254" t="s">
+        <v>320</v>
+      </c>
+      <c r="D254" t="s">
+        <v>430</v>
+      </c>
+      <c r="E254" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>532</v>
+      </c>
+      <c r="B255" t="s">
+        <v>675</v>
+      </c>
+      <c r="C255" t="s">
+        <v>320</v>
+      </c>
+      <c r="D255" t="s">
+        <v>430</v>
+      </c>
+      <c r="E255" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>532</v>
+      </c>
+      <c r="B256" t="s">
+        <v>676</v>
+      </c>
+      <c r="C256" t="s">
+        <v>320</v>
+      </c>
+      <c r="D256" t="s">
+        <v>431</v>
+      </c>
+      <c r="E256" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>533</v>
+      </c>
+      <c r="B257" t="s">
+        <v>677</v>
+      </c>
+      <c r="C257" t="s">
+        <v>321</v>
+      </c>
+      <c r="D257" t="s">
+        <v>432</v>
+      </c>
+      <c r="E257" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>533</v>
+      </c>
+      <c r="B258" t="s">
+        <v>678</v>
+      </c>
+      <c r="C258" t="s">
+        <v>321</v>
+      </c>
+      <c r="D258" t="s">
+        <v>433</v>
+      </c>
+      <c r="E258" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>533</v>
+      </c>
+      <c r="B259" t="s">
+        <v>679</v>
+      </c>
+      <c r="C259" t="s">
+        <v>321</v>
+      </c>
+      <c r="D259" t="s">
+        <v>434</v>
+      </c>
+      <c r="E259" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>533</v>
+      </c>
+      <c r="B260" t="s">
+        <v>680</v>
+      </c>
+      <c r="C260" t="s">
+        <v>321</v>
+      </c>
+      <c r="D260" t="s">
+        <v>434</v>
+      </c>
+      <c r="E260" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>533</v>
+      </c>
+      <c r="B261" t="s">
+        <v>681</v>
+      </c>
+      <c r="C261" t="s">
+        <v>321</v>
+      </c>
+      <c r="D261" t="s">
+        <v>435</v>
+      </c>
+      <c r="E261" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>534</v>
+      </c>
+      <c r="B262" t="s">
+        <v>682</v>
+      </c>
+      <c r="C262" t="s">
+        <v>322</v>
+      </c>
+      <c r="D262" t="s">
+        <v>436</v>
+      </c>
+      <c r="E262" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>534</v>
+      </c>
+      <c r="B263" t="s">
+        <v>682</v>
+      </c>
+      <c r="C263" t="s">
+        <v>322</v>
+      </c>
+      <c r="D263" t="s">
+        <v>437</v>
+      </c>
+      <c r="E263" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>534</v>
+      </c>
+      <c r="B264" t="s">
+        <v>683</v>
+      </c>
+      <c r="C264" t="s">
+        <v>322</v>
+      </c>
+      <c r="D264" t="s">
+        <v>438</v>
+      </c>
+      <c r="E264" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>534</v>
+      </c>
+      <c r="B265" t="s">
+        <v>684</v>
+      </c>
+      <c r="C265" t="s">
+        <v>322</v>
+      </c>
+      <c r="D265" t="s">
+        <v>438</v>
+      </c>
+      <c r="E265" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>534</v>
+      </c>
+      <c r="B266" t="s">
+        <v>685</v>
+      </c>
+      <c r="C266" t="s">
+        <v>322</v>
+      </c>
+      <c r="D266" t="s">
+        <v>439</v>
+      </c>
+      <c r="E266" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>535</v>
+      </c>
+      <c r="B267" t="s">
+        <v>686</v>
+      </c>
+      <c r="C267" t="s">
+        <v>323</v>
+      </c>
+      <c r="D267" t="s">
+        <v>440</v>
+      </c>
+      <c r="E267" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>535</v>
+      </c>
+      <c r="B268" t="s">
+        <v>687</v>
+      </c>
+      <c r="C268" t="s">
+        <v>323</v>
+      </c>
+      <c r="D268" t="s">
+        <v>441</v>
+      </c>
+      <c r="E268" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269" t="s">
+        <v>688</v>
+      </c>
+      <c r="C269" t="s">
+        <v>323</v>
+      </c>
+      <c r="D269" t="s">
+        <v>442</v>
+      </c>
+      <c r="E269" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>535</v>
+      </c>
+      <c r="B270" t="s">
+        <v>689</v>
+      </c>
+      <c r="C270" t="s">
+        <v>323</v>
+      </c>
+      <c r="D270" t="s">
+        <v>442</v>
+      </c>
+      <c r="E270" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" t="s">
+        <v>690</v>
+      </c>
+      <c r="C271" t="s">
+        <v>323</v>
+      </c>
+      <c r="D271" t="s">
+        <v>443</v>
+      </c>
+      <c r="E271" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>536</v>
+      </c>
+      <c r="B272" t="s">
+        <v>691</v>
+      </c>
+      <c r="C272" t="s">
+        <v>324</v>
+      </c>
+      <c r="D272" t="s">
+        <v>444</v>
+      </c>
+      <c r="E272" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" t="s">
+        <v>692</v>
+      </c>
+      <c r="C273" t="s">
+        <v>324</v>
+      </c>
+      <c r="D273" t="s">
+        <v>445</v>
+      </c>
+      <c r="E273" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>536</v>
+      </c>
+      <c r="B274" t="s">
+        <v>693</v>
+      </c>
+      <c r="C274" t="s">
+        <v>324</v>
+      </c>
+      <c r="D274" t="s">
+        <v>446</v>
+      </c>
+      <c r="E274" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>536</v>
+      </c>
+      <c r="B275" t="s">
+        <v>694</v>
+      </c>
+      <c r="C275" t="s">
+        <v>324</v>
+      </c>
+      <c r="D275" t="s">
+        <v>446</v>
+      </c>
+      <c r="E275" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>536</v>
+      </c>
+      <c r="B276" t="s">
+        <v>695</v>
+      </c>
+      <c r="C276" t="s">
+        <v>324</v>
+      </c>
+      <c r="D276" t="s">
+        <v>447</v>
+      </c>
+      <c r="E276" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>537</v>
+      </c>
+      <c r="B277" t="s">
+        <v>696</v>
+      </c>
+      <c r="C277" t="s">
+        <v>325</v>
+      </c>
+      <c r="D277" t="s">
+        <v>448</v>
+      </c>
+      <c r="E277" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>537</v>
+      </c>
+      <c r="B278" t="s">
+        <v>697</v>
+      </c>
+      <c r="C278" t="s">
+        <v>325</v>
+      </c>
+      <c r="D278" t="s">
+        <v>449</v>
+      </c>
+      <c r="E278" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>537</v>
+      </c>
+      <c r="B279" t="s">
+        <v>698</v>
+      </c>
+      <c r="C279" t="s">
+        <v>325</v>
+      </c>
+      <c r="D279" t="s">
+        <v>450</v>
+      </c>
+      <c r="E279" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>537</v>
+      </c>
+      <c r="B280" t="s">
+        <v>699</v>
+      </c>
+      <c r="C280" t="s">
+        <v>325</v>
+      </c>
+      <c r="D280" t="s">
+        <v>450</v>
+      </c>
+      <c r="E280" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>537</v>
+      </c>
+      <c r="B281" t="s">
+        <v>700</v>
+      </c>
+      <c r="C281" t="s">
+        <v>325</v>
+      </c>
+      <c r="D281" t="s">
+        <v>451</v>
+      </c>
+      <c r="E281" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>538</v>
+      </c>
+      <c r="B282" t="s">
+        <v>701</v>
+      </c>
+      <c r="C282" t="s">
+        <v>326</v>
+      </c>
+      <c r="D282" t="s">
+        <v>452</v>
+      </c>
+      <c r="E282" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>538</v>
+      </c>
+      <c r="B283" t="s">
+        <v>702</v>
+      </c>
+      <c r="C283" t="s">
+        <v>326</v>
+      </c>
+      <c r="D283" t="s">
+        <v>453</v>
+      </c>
+      <c r="E283" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>538</v>
+      </c>
+      <c r="B284" t="s">
+        <v>703</v>
+      </c>
+      <c r="C284" t="s">
+        <v>326</v>
+      </c>
+      <c r="D284" t="s">
+        <v>454</v>
+      </c>
+      <c r="E284" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>538</v>
+      </c>
+      <c r="B285" t="s">
+        <v>704</v>
+      </c>
+      <c r="C285" t="s">
+        <v>326</v>
+      </c>
+      <c r="D285" t="s">
+        <v>454</v>
+      </c>
+      <c r="E285" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>538</v>
+      </c>
+      <c r="B286" t="s">
+        <v>705</v>
+      </c>
+      <c r="C286" t="s">
+        <v>326</v>
+      </c>
+      <c r="D286" t="s">
+        <v>455</v>
+      </c>
+      <c r="E286" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>539</v>
+      </c>
+      <c r="B287" t="s">
+        <v>706</v>
+      </c>
+      <c r="C287" t="s">
+        <v>327</v>
+      </c>
+      <c r="D287" t="s">
+        <v>456</v>
+      </c>
+      <c r="E287" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>539</v>
+      </c>
+      <c r="B288" t="s">
+        <v>707</v>
+      </c>
+      <c r="C288" t="s">
+        <v>327</v>
+      </c>
+      <c r="D288" t="s">
+        <v>457</v>
+      </c>
+      <c r="E288" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>539</v>
+      </c>
+      <c r="B289" t="s">
+        <v>708</v>
+      </c>
+      <c r="C289" t="s">
+        <v>327</v>
+      </c>
+      <c r="D289" t="s">
+        <v>458</v>
+      </c>
+      <c r="E289" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>539</v>
+      </c>
+      <c r="B290" t="s">
+        <v>709</v>
+      </c>
+      <c r="C290" t="s">
+        <v>327</v>
+      </c>
+      <c r="D290" t="s">
+        <v>458</v>
+      </c>
+      <c r="E290" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>539</v>
+      </c>
+      <c r="B291" t="s">
+        <v>710</v>
+      </c>
+      <c r="C291" t="s">
+        <v>327</v>
+      </c>
+      <c r="D291" t="s">
+        <v>459</v>
+      </c>
+      <c r="E291" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>540</v>
+      </c>
+      <c r="B292" t="s">
+        <v>711</v>
+      </c>
+      <c r="C292" t="s">
+        <v>337</v>
+      </c>
+      <c r="D292" t="s">
+        <v>460</v>
+      </c>
+      <c r="E292" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>540</v>
+      </c>
+      <c r="B293" t="s">
+        <v>712</v>
+      </c>
+      <c r="C293" t="s">
+        <v>337</v>
+      </c>
+      <c r="D293" t="s">
+        <v>461</v>
+      </c>
+      <c r="E293" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>540</v>
+      </c>
+      <c r="B294" t="s">
+        <v>713</v>
+      </c>
+      <c r="C294" t="s">
+        <v>337</v>
+      </c>
+      <c r="D294" t="s">
+        <v>462</v>
+      </c>
+      <c r="E294" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>540</v>
+      </c>
+      <c r="B295" t="s">
+        <v>714</v>
+      </c>
+      <c r="C295" t="s">
+        <v>337</v>
+      </c>
+      <c r="D295" t="s">
+        <v>462</v>
+      </c>
+      <c r="E295" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>540</v>
+      </c>
+      <c r="B296" t="s">
+        <v>715</v>
+      </c>
+      <c r="C296" t="s">
+        <v>337</v>
+      </c>
+      <c r="D296" t="s">
+        <v>463</v>
+      </c>
+      <c r="E296" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>541</v>
+      </c>
+      <c r="B297" t="s">
+        <v>716</v>
+      </c>
+      <c r="C297" t="s">
+        <v>328</v>
+      </c>
+      <c r="D297" t="s">
+        <v>464</v>
+      </c>
+      <c r="E297" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>541</v>
+      </c>
+      <c r="B298" t="s">
+        <v>717</v>
+      </c>
+      <c r="C298" t="s">
+        <v>328</v>
+      </c>
+      <c r="D298" t="s">
+        <v>465</v>
+      </c>
+      <c r="E298" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>541</v>
+      </c>
+      <c r="B299" t="s">
+        <v>718</v>
+      </c>
+      <c r="C299" t="s">
+        <v>328</v>
+      </c>
+      <c r="D299" t="s">
+        <v>466</v>
+      </c>
+      <c r="E299" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>541</v>
+      </c>
+      <c r="B300" t="s">
+        <v>719</v>
+      </c>
+      <c r="C300" t="s">
+        <v>328</v>
+      </c>
+      <c r="D300" t="s">
+        <v>466</v>
+      </c>
+      <c r="E300" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>541</v>
+      </c>
+      <c r="B301" t="s">
+        <v>720</v>
+      </c>
+      <c r="C301" t="s">
+        <v>328</v>
+      </c>
+      <c r="D301" t="s">
+        <v>467</v>
+      </c>
+      <c r="E301" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>542</v>
+      </c>
+      <c r="B302" t="s">
+        <v>721</v>
+      </c>
+      <c r="C302" t="s">
+        <v>329</v>
+      </c>
+      <c r="D302" t="s">
+        <v>468</v>
+      </c>
+      <c r="E302" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>542</v>
+      </c>
+      <c r="B303" t="s">
+        <v>722</v>
+      </c>
+      <c r="C303" t="s">
+        <v>329</v>
+      </c>
+      <c r="D303" t="s">
+        <v>469</v>
+      </c>
+      <c r="E303" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>542</v>
+      </c>
+      <c r="B304" t="s">
+        <v>723</v>
+      </c>
+      <c r="C304" t="s">
+        <v>329</v>
+      </c>
+      <c r="D304" t="s">
+        <v>470</v>
+      </c>
+      <c r="E304" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>542</v>
+      </c>
+      <c r="B305" t="s">
+        <v>724</v>
+      </c>
+      <c r="C305" t="s">
+        <v>329</v>
+      </c>
+      <c r="D305" t="s">
+        <v>470</v>
+      </c>
+      <c r="E305" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>542</v>
+      </c>
+      <c r="B306" t="s">
+        <v>725</v>
+      </c>
+      <c r="C306" t="s">
+        <v>329</v>
+      </c>
+      <c r="D306" t="s">
+        <v>471</v>
+      </c>
+      <c r="E306" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>543</v>
+      </c>
+      <c r="B307" t="s">
+        <v>726</v>
+      </c>
+      <c r="C307" t="s">
+        <v>330</v>
+      </c>
+      <c r="D307" t="s">
+        <v>472</v>
+      </c>
+      <c r="E307" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>543</v>
+      </c>
+      <c r="B308" t="s">
+        <v>727</v>
+      </c>
+      <c r="C308" t="s">
+        <v>330</v>
+      </c>
+      <c r="D308" t="s">
+        <v>473</v>
+      </c>
+      <c r="E308" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>543</v>
+      </c>
+      <c r="B309" t="s">
+        <v>728</v>
+      </c>
+      <c r="C309" t="s">
+        <v>330</v>
+      </c>
+      <c r="D309" t="s">
+        <v>474</v>
+      </c>
+      <c r="E309" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>543</v>
+      </c>
+      <c r="B310" t="s">
+        <v>729</v>
+      </c>
+      <c r="C310" t="s">
+        <v>330</v>
+      </c>
+      <c r="D310" t="s">
+        <v>474</v>
+      </c>
+      <c r="E310" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>543</v>
+      </c>
+      <c r="B311" t="s">
+        <v>730</v>
+      </c>
+      <c r="C311" t="s">
+        <v>330</v>
+      </c>
+      <c r="D311" t="s">
+        <v>475</v>
+      </c>
+      <c r="E311" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>549</v>
+      </c>
+      <c r="B312" t="s">
+        <v>731</v>
+      </c>
+      <c r="C312" t="s">
+        <v>544</v>
+      </c>
+      <c r="D312" t="s">
+        <v>545</v>
+      </c>
+      <c r="E312" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>549</v>
+      </c>
+      <c r="B313" t="s">
+        <v>732</v>
+      </c>
+      <c r="C313" t="s">
+        <v>544</v>
+      </c>
+      <c r="D313" t="s">
+        <v>546</v>
+      </c>
+      <c r="E313" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>549</v>
+      </c>
+      <c r="B314" t="s">
+        <v>733</v>
+      </c>
+      <c r="C314" t="s">
+        <v>544</v>
+      </c>
+      <c r="D314" t="s">
+        <v>547</v>
+      </c>
+      <c r="E314" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>549</v>
+      </c>
+      <c r="B315" t="s">
+        <v>734</v>
+      </c>
+      <c r="C315" t="s">
+        <v>544</v>
+      </c>
+      <c r="D315" t="s">
+        <v>547</v>
+      </c>
+      <c r="E315" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>549</v>
+      </c>
+      <c r="B316" t="s">
+        <v>735</v>
+      </c>
+      <c r="C316" t="s">
+        <v>544</v>
+      </c>
+      <c r="D316" t="s">
+        <v>548</v>
+      </c>
+      <c r="E316" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>550</v>
+      </c>
+      <c r="B317" t="s">
+        <v>736</v>
+      </c>
+      <c r="C317" t="s">
+        <v>331</v>
+      </c>
+      <c r="D317" t="s">
+        <v>476</v>
+      </c>
+      <c r="E317" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>550</v>
+      </c>
+      <c r="B318" t="s">
+        <v>737</v>
+      </c>
+      <c r="C318" t="s">
+        <v>331</v>
+      </c>
+      <c r="D318" t="s">
+        <v>477</v>
+      </c>
+      <c r="E318" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>550</v>
+      </c>
+      <c r="B319" t="s">
+        <v>738</v>
+      </c>
+      <c r="C319" t="s">
+        <v>331</v>
+      </c>
+      <c r="D319" t="s">
+        <v>478</v>
+      </c>
+      <c r="E319" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>550</v>
+      </c>
+      <c r="B320" t="s">
+        <v>739</v>
+      </c>
+      <c r="C320" t="s">
+        <v>331</v>
+      </c>
+      <c r="D320" t="s">
+        <v>478</v>
+      </c>
+      <c r="E320" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>550</v>
+      </c>
+      <c r="B321" t="s">
+        <v>740</v>
+      </c>
+      <c r="C321" t="s">
+        <v>331</v>
+      </c>
+      <c r="D321" t="s">
+        <v>479</v>
+      </c>
+      <c r="E321" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>551</v>
+      </c>
+      <c r="B322" t="s">
+        <v>741</v>
+      </c>
+      <c r="C322" t="s">
+        <v>332</v>
+      </c>
+      <c r="D322" t="s">
+        <v>480</v>
+      </c>
+      <c r="E322" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>551</v>
+      </c>
+      <c r="B323" t="s">
+        <v>742</v>
+      </c>
+      <c r="C323" t="s">
+        <v>332</v>
+      </c>
+      <c r="D323" t="s">
+        <v>481</v>
+      </c>
+      <c r="E323" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>551</v>
+      </c>
+      <c r="B324" t="s">
+        <v>743</v>
+      </c>
+      <c r="C324" t="s">
+        <v>332</v>
+      </c>
+      <c r="D324" t="s">
+        <v>482</v>
+      </c>
+      <c r="E324" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>551</v>
+      </c>
+      <c r="B325" t="s">
+        <v>744</v>
+      </c>
+      <c r="C325" t="s">
+        <v>332</v>
+      </c>
+      <c r="D325" t="s">
+        <v>482</v>
+      </c>
+      <c r="E325" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>551</v>
+      </c>
+      <c r="B326" t="s">
+        <v>745</v>
+      </c>
+      <c r="C326" t="s">
+        <v>332</v>
+      </c>
+      <c r="D326" t="s">
+        <v>483</v>
+      </c>
+      <c r="E326" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>552</v>
+      </c>
+      <c r="B327" t="s">
+        <v>746</v>
+      </c>
+      <c r="C327" t="s">
+        <v>333</v>
+      </c>
+      <c r="D327" t="s">
+        <v>484</v>
+      </c>
+      <c r="E327" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>552</v>
+      </c>
+      <c r="B328" t="s">
+        <v>747</v>
+      </c>
+      <c r="C328" t="s">
+        <v>333</v>
+      </c>
+      <c r="D328" t="s">
+        <v>485</v>
+      </c>
+      <c r="E328" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>552</v>
+      </c>
+      <c r="B329" t="s">
+        <v>748</v>
+      </c>
+      <c r="C329" t="s">
+        <v>333</v>
+      </c>
+      <c r="D329" t="s">
+        <v>486</v>
+      </c>
+      <c r="E329" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>552</v>
+      </c>
+      <c r="B330" t="s">
+        <v>749</v>
+      </c>
+      <c r="C330" t="s">
+        <v>333</v>
+      </c>
+      <c r="D330" t="s">
+        <v>486</v>
+      </c>
+      <c r="E330" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>552</v>
+      </c>
+      <c r="B331" t="s">
+        <v>750</v>
+      </c>
+      <c r="C331" t="s">
+        <v>333</v>
+      </c>
+      <c r="D331" t="s">
+        <v>487</v>
+      </c>
+      <c r="E331" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>553</v>
+      </c>
+      <c r="B332" t="s">
+        <v>751</v>
+      </c>
+      <c r="C332" t="s">
+        <v>334</v>
+      </c>
+      <c r="D332" t="s">
+        <v>488</v>
+      </c>
+      <c r="E332" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>553</v>
+      </c>
+      <c r="B333" t="s">
+        <v>752</v>
+      </c>
+      <c r="C333" t="s">
+        <v>334</v>
+      </c>
+      <c r="D333" t="s">
+        <v>489</v>
+      </c>
+      <c r="E333" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>553</v>
+      </c>
+      <c r="B334" t="s">
+        <v>753</v>
+      </c>
+      <c r="C334" t="s">
+        <v>334</v>
+      </c>
+      <c r="D334" t="s">
+        <v>490</v>
+      </c>
+      <c r="E334" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>553</v>
+      </c>
+      <c r="B335" t="s">
+        <v>754</v>
+      </c>
+      <c r="C335" t="s">
+        <v>334</v>
+      </c>
+      <c r="D335" t="s">
+        <v>490</v>
+      </c>
+      <c r="E335" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>553</v>
+      </c>
+      <c r="B336" t="s">
+        <v>755</v>
+      </c>
+      <c r="C336" t="s">
+        <v>334</v>
+      </c>
+      <c r="D336" t="s">
+        <v>491</v>
+      </c>
+      <c r="E336" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>554</v>
+      </c>
+      <c r="B337" t="s">
+        <v>756</v>
+      </c>
+      <c r="C337" t="s">
+        <v>338</v>
+      </c>
+      <c r="D337" t="s">
+        <v>492</v>
+      </c>
+      <c r="E337" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>554</v>
+      </c>
+      <c r="B338" t="s">
+        <v>757</v>
+      </c>
+      <c r="C338" t="s">
+        <v>338</v>
+      </c>
+      <c r="D338" t="s">
+        <v>493</v>
+      </c>
+      <c r="E338" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>554</v>
+      </c>
+      <c r="B339" t="s">
+        <v>758</v>
+      </c>
+      <c r="C339" t="s">
+        <v>338</v>
+      </c>
+      <c r="D339" t="s">
+        <v>494</v>
+      </c>
+      <c r="E339" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>554</v>
+      </c>
+      <c r="B340" t="s">
+        <v>759</v>
+      </c>
+      <c r="C340" t="s">
+        <v>338</v>
+      </c>
+      <c r="D340" t="s">
+        <v>494</v>
+      </c>
+      <c r="E340" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>554</v>
+      </c>
+      <c r="B341" t="s">
+        <v>760</v>
+      </c>
+      <c r="C341" t="s">
+        <v>338</v>
+      </c>
+      <c r="D341" t="s">
+        <v>495</v>
+      </c>
+      <c r="E341" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>555</v>
+      </c>
+      <c r="B342" t="s">
+        <v>761</v>
+      </c>
+      <c r="C342" t="s">
         <v>335</v>
       </c>
-      <c r="B166" t="s">
-        <v>330</v>
-      </c>
-      <c r="C166" t="s">
-        <v>360</v>
-      </c>
-      <c r="D166" t="s">
-        <v>379</v>
-      </c>
-      <c r="E166" t="s">
-        <v>287</v>
+      <c r="D342" t="s">
+        <v>496</v>
+      </c>
+      <c r="E342" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>555</v>
+      </c>
+      <c r="B343" t="s">
+        <v>762</v>
+      </c>
+      <c r="C343" t="s">
+        <v>335</v>
+      </c>
+      <c r="D343" t="s">
+        <v>497</v>
+      </c>
+      <c r="E343" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>555</v>
+      </c>
+      <c r="B344" t="s">
+        <v>763</v>
+      </c>
+      <c r="C344" t="s">
+        <v>335</v>
+      </c>
+      <c r="D344" t="s">
+        <v>498</v>
+      </c>
+      <c r="E344" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>555</v>
+      </c>
+      <c r="B345" t="s">
+        <v>764</v>
+      </c>
+      <c r="C345" t="s">
+        <v>335</v>
+      </c>
+      <c r="D345" t="s">
+        <v>498</v>
+      </c>
+      <c r="E345" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>555</v>
+      </c>
+      <c r="B346" t="s">
+        <v>765</v>
+      </c>
+      <c r="C346" t="s">
+        <v>335</v>
+      </c>
+      <c r="D346" t="s">
+        <v>499</v>
+      </c>
+      <c r="E346" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>556</v>
+      </c>
+      <c r="B347" t="s">
+        <v>766</v>
+      </c>
+      <c r="C347" t="s">
+        <v>336</v>
+      </c>
+      <c r="D347" t="s">
+        <v>500</v>
+      </c>
+      <c r="E347" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>556</v>
+      </c>
+      <c r="B348" t="s">
+        <v>767</v>
+      </c>
+      <c r="C348" t="s">
+        <v>336</v>
+      </c>
+      <c r="D348" t="s">
+        <v>501</v>
+      </c>
+      <c r="E348" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>556</v>
+      </c>
+      <c r="B349" t="s">
+        <v>768</v>
+      </c>
+      <c r="C349" t="s">
+        <v>336</v>
+      </c>
+      <c r="D349" t="s">
+        <v>502</v>
+      </c>
+      <c r="E349" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>556</v>
+      </c>
+      <c r="B350" t="s">
+        <v>769</v>
+      </c>
+      <c r="C350" t="s">
+        <v>336</v>
+      </c>
+      <c r="D350" t="s">
+        <v>502</v>
+      </c>
+      <c r="E350" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>556</v>
+      </c>
+      <c r="B351" t="s">
+        <v>770</v>
+      </c>
+      <c r="C351" t="s">
+        <v>336</v>
+      </c>
+      <c r="D351" t="s">
+        <v>503</v>
+      </c>
+      <c r="E351" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="786">
   <si>
     <t>Normal verb - Past tense</t>
   </si>
@@ -2337,6 +2337,51 @@
   </si>
   <si>
     <t>ගැරුවෝය</t>
+  </si>
+  <si>
+    <t>එමු</t>
+  </si>
+  <si>
+    <t>එයි</t>
+  </si>
+  <si>
+    <t xml:space="preserve">එති  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ආවෙමු  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ආවේය  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ආවාය  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ආවෝය  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වෙමු   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වෙයි    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වෙති     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වුනෙමු      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වුනේය       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වුනාය       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වුනෝය       </t>
+  </si>
+  <si>
+    <t>රැව්වෙමු</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2766,7 @@
   <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F351" sqref="F351"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,13 +4092,13 @@
         <v>291</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>774</v>
       </c>
       <c r="C78" t="s">
         <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>771</v>
       </c>
       <c r="E78" t="s">
         <v>211</v>
@@ -4064,13 +4109,13 @@
         <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>775</v>
       </c>
       <c r="C79" t="s">
         <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>772</v>
       </c>
       <c r="E79" t="s">
         <v>206</v>
@@ -4081,13 +4126,13 @@
         <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>292</v>
+        <v>776</v>
       </c>
       <c r="C80" t="s">
         <v>293</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>772</v>
       </c>
       <c r="E80" t="s">
         <v>207</v>
@@ -4098,13 +4143,13 @@
         <v>291</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>777</v>
       </c>
       <c r="C81" t="s">
         <v>293</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>773</v>
       </c>
       <c r="E81" t="s">
         <v>208</v>
@@ -4387,13 +4432,13 @@
         <v>295</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>781</v>
       </c>
       <c r="C98" t="s">
         <v>297</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>778</v>
       </c>
       <c r="E98" t="s">
         <v>205</v>
@@ -4404,13 +4449,13 @@
         <v>295</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>782</v>
       </c>
       <c r="C99" t="s">
         <v>297</v>
       </c>
       <c r="D99" t="s">
-        <v>298</v>
+        <v>779</v>
       </c>
       <c r="E99" t="s">
         <v>206</v>
@@ -4421,13 +4466,13 @@
         <v>295</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>783</v>
       </c>
       <c r="C100" t="s">
         <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>298</v>
+        <v>779</v>
       </c>
       <c r="E100" t="s">
         <v>207</v>
@@ -4438,13 +4483,13 @@
         <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>784</v>
       </c>
       <c r="C101" t="s">
         <v>297</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>780</v>
       </c>
       <c r="E101" t="s">
         <v>212</v>
@@ -7192,7 +7237,7 @@
         <v>534</v>
       </c>
       <c r="B263" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="C263" t="s">
         <v>322</v>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilan\Desktop\Sinhala-Spelling-Grammar-Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B787998-6E74-4227-8995-48754158B24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7590"/>
+    <workbookView xWindow="192" yWindow="72" windowWidth="13584" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="842">
   <si>
     <t>Normal verb - Past tense</t>
   </si>
@@ -2382,12 +2383,180 @@
   </si>
   <si>
     <t>රැව්වෙමු</t>
+  </si>
+  <si>
+    <t>දමනවා</t>
+  </si>
+  <si>
+    <t xml:space="preserve">දමමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දමනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දමමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දමයි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දමති  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැම්මා  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැම්මෙමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැම්මෙමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැම්මාය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැම්මේය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">දැම්මෝය   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලනවා  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලුවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලුවෙමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලුවෙමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලුවාය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලුවේය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලුවෝය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලයි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">පෙරලති </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගසනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගසමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගසමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගසයි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගසති </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැසුවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැසුවෙමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැසුවෙමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැසුවාය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැසුවෝය  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ගැසුවේය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වහනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වහමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වහති </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වහයි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වහමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැහුවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැහුවෙමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැහුවෙමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැහුවේය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැහුවාය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">වැහුවෝය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවෙනවා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවෙමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවෙමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවෙයි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවෙති </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවුනා </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවුනෙමි </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවුනෙමු </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවුනේය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවුනාය </t>
+  </si>
+  <si>
+    <t xml:space="preserve">සෙලවුනෝය </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2458,7 +2627,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2762,23 +2937,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E351"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2812,7 +2987,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2829,7 +3004,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +3021,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +3038,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +3055,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2897,7 +3072,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2914,7 +3089,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +3106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +3123,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2965,7 +3140,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2982,7 +3157,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +3174,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3191,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +3208,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3050,7 +3225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>222</v>
       </c>
@@ -3067,7 +3242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>222</v>
       </c>
@@ -3084,7 +3259,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -3101,7 +3276,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -3118,7 +3293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -3135,7 +3310,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3152,7 +3327,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3169,7 +3344,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3186,7 +3361,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3203,7 +3378,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3220,7 +3395,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3237,7 +3412,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3254,7 +3429,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3271,7 +3446,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -3288,7 +3463,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -3305,7 +3480,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3322,7 +3497,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3339,7 +3514,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -3356,7 +3531,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3373,7 +3548,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3390,7 +3565,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3407,7 +3582,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3424,7 +3599,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3441,7 +3616,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3458,7 +3633,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3475,7 +3650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +3667,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -3509,7 +3684,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +3701,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3543,7 +3718,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3735,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -3577,7 +3752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -3594,7 +3769,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -3611,7 +3786,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -3628,7 +3803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -3645,7 +3820,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -3662,7 +3837,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3679,7 +3854,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3696,7 +3871,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -3713,7 +3888,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3730,7 +3905,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -3747,7 +3922,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -3781,7 +3956,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3798,7 +3973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3815,7 +3990,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>232</v>
       </c>
@@ -3832,7 +4007,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>232</v>
       </c>
@@ -3849,7 +4024,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>232</v>
       </c>
@@ -3866,7 +4041,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>232</v>
       </c>
@@ -3883,7 +4058,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>232</v>
       </c>
@@ -3900,7 +4075,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -3917,7 +4092,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -3934,7 +4109,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -3951,7 +4126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -3968,7 +4143,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>29</v>
       </c>
@@ -3985,7 +4160,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -4002,7 +4177,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -4019,7 +4194,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -4036,7 +4211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -4053,7 +4228,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -4070,7 +4245,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>291</v>
       </c>
@@ -4087,7 +4262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>291</v>
       </c>
@@ -4104,7 +4279,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>291</v>
       </c>
@@ -4121,7 +4296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>291</v>
       </c>
@@ -4138,7 +4313,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>291</v>
       </c>
@@ -4155,7 +4330,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -4172,7 +4347,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -4189,7 +4364,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -4206,7 +4381,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -4223,7 +4398,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -4240,7 +4415,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>31</v>
       </c>
@@ -4257,7 +4432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -4274,7 +4449,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>31</v>
       </c>
@@ -4291,7 +4466,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -4308,7 +4483,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -4325,7 +4500,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -4342,7 +4517,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -4359,7 +4534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -4376,7 +4551,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -4393,7 +4568,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -4410,7 +4585,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -4427,7 +4602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -4444,7 +4619,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -4461,7 +4636,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>295</v>
       </c>
@@ -4478,7 +4653,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>295</v>
       </c>
@@ -4495,7 +4670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -4512,7 +4687,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -4529,7 +4704,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -4546,7 +4721,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -4563,7 +4738,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -4580,7 +4755,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -4597,7 +4772,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -4614,7 +4789,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -4631,7 +4806,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -4648,7 +4823,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -4665,7 +4840,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -4682,7 +4857,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -4699,7 +4874,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -4716,7 +4891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>241</v>
       </c>
@@ -4733,7 +4908,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>241</v>
       </c>
@@ -4750,7 +4925,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -4767,7 +4942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -4784,7 +4959,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>242</v>
       </c>
@@ -4801,7 +4976,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>242</v>
       </c>
@@ -4818,7 +4993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -4835,7 +5010,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -4852,7 +5027,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -4869,7 +5044,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>243</v>
       </c>
@@ -4886,7 +5061,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -4903,7 +5078,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -4920,7 +5095,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>244</v>
       </c>
@@ -4937,7 +5112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>244</v>
       </c>
@@ -4954,7 +5129,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>244</v>
       </c>
@@ -4971,7 +5146,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>244</v>
       </c>
@@ -4988,7 +5163,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>244</v>
       </c>
@@ -5005,7 +5180,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>245</v>
       </c>
@@ -5022,7 +5197,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>245</v>
       </c>
@@ -5039,7 +5214,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>245</v>
       </c>
@@ -5056,7 +5231,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>245</v>
       </c>
@@ -5073,7 +5248,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>245</v>
       </c>
@@ -5090,7 +5265,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>504</v>
       </c>
@@ -5107,7 +5282,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>504</v>
       </c>
@@ -5124,7 +5299,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>504</v>
       </c>
@@ -5141,7 +5316,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>504</v>
       </c>
@@ -5158,7 +5333,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>504</v>
       </c>
@@ -5175,7 +5350,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>505</v>
       </c>
@@ -5192,7 +5367,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>505</v>
       </c>
@@ -5209,7 +5384,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>505</v>
       </c>
@@ -5226,7 +5401,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>505</v>
       </c>
@@ -5243,7 +5418,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>505</v>
       </c>
@@ -5260,7 +5435,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>506</v>
       </c>
@@ -5277,7 +5452,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>506</v>
       </c>
@@ -5294,7 +5469,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>506</v>
       </c>
@@ -5311,7 +5486,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>506</v>
       </c>
@@ -5328,7 +5503,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>506</v>
       </c>
@@ -5345,7 +5520,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>507</v>
       </c>
@@ -5362,7 +5537,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>507</v>
       </c>
@@ -5379,7 +5554,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>507</v>
       </c>
@@ -5396,7 +5571,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>507</v>
       </c>
@@ -5413,7 +5588,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>507</v>
       </c>
@@ -5430,7 +5605,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>508</v>
       </c>
@@ -5447,7 +5622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>508</v>
       </c>
@@ -5464,7 +5639,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>508</v>
       </c>
@@ -5481,7 +5656,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>508</v>
       </c>
@@ -5498,7 +5673,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>508</v>
       </c>
@@ -5515,7 +5690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>509</v>
       </c>
@@ -5532,7 +5707,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>509</v>
       </c>
@@ -5549,7 +5724,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>509</v>
       </c>
@@ -5566,7 +5741,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>509</v>
       </c>
@@ -5583,7 +5758,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>509</v>
       </c>
@@ -5600,7 +5775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>510</v>
       </c>
@@ -5617,7 +5792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -5634,7 +5809,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>510</v>
       </c>
@@ -5651,7 +5826,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>510</v>
       </c>
@@ -5668,7 +5843,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>510</v>
       </c>
@@ -5685,7 +5860,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>511</v>
       </c>
@@ -5702,7 +5877,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>511</v>
       </c>
@@ -5719,7 +5894,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>511</v>
       </c>
@@ -5736,7 +5911,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -5753,7 +5928,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>511</v>
       </c>
@@ -5770,7 +5945,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>512</v>
       </c>
@@ -5787,7 +5962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>512</v>
       </c>
@@ -5804,7 +5979,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>512</v>
       </c>
@@ -5821,7 +5996,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -5838,7 +6013,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>512</v>
       </c>
@@ -5855,7 +6030,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -5872,7 +6047,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -5889,7 +6064,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>513</v>
       </c>
@@ -5906,7 +6081,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>513</v>
       </c>
@@ -5923,7 +6098,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>513</v>
       </c>
@@ -5940,7 +6115,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>514</v>
       </c>
@@ -5957,7 +6132,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>514</v>
       </c>
@@ -5974,7 +6149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>514</v>
       </c>
@@ -5991,7 +6166,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>514</v>
       </c>
@@ -6008,7 +6183,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>514</v>
       </c>
@@ -6025,7 +6200,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>515</v>
       </c>
@@ -6042,7 +6217,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>515</v>
       </c>
@@ -6059,7 +6234,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>515</v>
       </c>
@@ -6076,7 +6251,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>515</v>
       </c>
@@ -6093,7 +6268,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>515</v>
       </c>
@@ -6110,7 +6285,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>516</v>
       </c>
@@ -6127,7 +6302,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>516</v>
       </c>
@@ -6144,7 +6319,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>516</v>
       </c>
@@ -6161,7 +6336,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>516</v>
       </c>
@@ -6178,7 +6353,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>516</v>
       </c>
@@ -6195,7 +6370,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>517</v>
       </c>
@@ -6212,7 +6387,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>517</v>
       </c>
@@ -6229,7 +6404,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>517</v>
       </c>
@@ -6246,7 +6421,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>517</v>
       </c>
@@ -6263,7 +6438,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>517</v>
       </c>
@@ -6280,7 +6455,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>518</v>
       </c>
@@ -6297,7 +6472,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>518</v>
       </c>
@@ -6314,7 +6489,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>518</v>
       </c>
@@ -6331,7 +6506,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>518</v>
       </c>
@@ -6348,7 +6523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>518</v>
       </c>
@@ -6365,7 +6540,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>519</v>
       </c>
@@ -6382,7 +6557,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>519</v>
       </c>
@@ -6399,7 +6574,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>519</v>
       </c>
@@ -6416,7 +6591,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>519</v>
       </c>
@@ -6433,7 +6608,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>519</v>
       </c>
@@ -6450,7 +6625,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>525</v>
       </c>
@@ -6467,7 +6642,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>525</v>
       </c>
@@ -6484,7 +6659,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>525</v>
       </c>
@@ -6501,7 +6676,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>525</v>
       </c>
@@ -6518,7 +6693,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>525</v>
       </c>
@@ -6535,7 +6710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>526</v>
       </c>
@@ -6552,7 +6727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>526</v>
       </c>
@@ -6569,7 +6744,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>526</v>
       </c>
@@ -6586,7 +6761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>526</v>
       </c>
@@ -6603,7 +6778,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>526</v>
       </c>
@@ -6620,7 +6795,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>527</v>
       </c>
@@ -6637,7 +6812,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>527</v>
       </c>
@@ -6654,7 +6829,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>527</v>
       </c>
@@ -6671,7 +6846,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>527</v>
       </c>
@@ -6688,7 +6863,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>527</v>
       </c>
@@ -6705,7 +6880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>528</v>
       </c>
@@ -6722,7 +6897,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>528</v>
       </c>
@@ -6739,7 +6914,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>528</v>
       </c>
@@ -6756,7 +6931,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>528</v>
       </c>
@@ -6773,7 +6948,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>528</v>
       </c>
@@ -6790,7 +6965,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>529</v>
       </c>
@@ -6807,7 +6982,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>529</v>
       </c>
@@ -6824,7 +6999,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>529</v>
       </c>
@@ -6841,7 +7016,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>529</v>
       </c>
@@ -6858,7 +7033,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>529</v>
       </c>
@@ -6875,7 +7050,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>530</v>
       </c>
@@ -6892,7 +7067,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>530</v>
       </c>
@@ -6909,7 +7084,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>530</v>
       </c>
@@ -6926,7 +7101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>530</v>
       </c>
@@ -6943,7 +7118,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>530</v>
       </c>
@@ -6960,7 +7135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>531</v>
       </c>
@@ -6977,7 +7152,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>531</v>
       </c>
@@ -6994,7 +7169,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>531</v>
       </c>
@@ -7011,7 +7186,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>531</v>
       </c>
@@ -7028,7 +7203,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>531</v>
       </c>
@@ -7045,7 +7220,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>532</v>
       </c>
@@ -7062,7 +7237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>532</v>
       </c>
@@ -7079,7 +7254,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>532</v>
       </c>
@@ -7096,7 +7271,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>532</v>
       </c>
@@ -7113,7 +7288,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>532</v>
       </c>
@@ -7130,7 +7305,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>533</v>
       </c>
@@ -7147,7 +7322,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>533</v>
       </c>
@@ -7164,7 +7339,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>533</v>
       </c>
@@ -7181,7 +7356,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>533</v>
       </c>
@@ -7198,7 +7373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>533</v>
       </c>
@@ -7215,7 +7390,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>534</v>
       </c>
@@ -7232,7 +7407,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>534</v>
       </c>
@@ -7249,7 +7424,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>534</v>
       </c>
@@ -7266,7 +7441,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>534</v>
       </c>
@@ -7283,7 +7458,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>534</v>
       </c>
@@ -7300,7 +7475,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>535</v>
       </c>
@@ -7317,7 +7492,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>535</v>
       </c>
@@ -7334,7 +7509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>535</v>
       </c>
@@ -7351,7 +7526,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -7368,7 +7543,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>535</v>
       </c>
@@ -7385,7 +7560,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -7402,7 +7577,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>536</v>
       </c>
@@ -7419,7 +7594,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>536</v>
       </c>
@@ -7436,7 +7611,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>536</v>
       </c>
@@ -7453,7 +7628,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>536</v>
       </c>
@@ -7470,7 +7645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>537</v>
       </c>
@@ -7487,7 +7662,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>537</v>
       </c>
@@ -7504,7 +7679,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>537</v>
       </c>
@@ -7521,7 +7696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>537</v>
       </c>
@@ -7538,7 +7713,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>537</v>
       </c>
@@ -7555,7 +7730,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>538</v>
       </c>
@@ -7572,7 +7747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>538</v>
       </c>
@@ -7589,7 +7764,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>538</v>
       </c>
@@ -7606,7 +7781,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>538</v>
       </c>
@@ -7623,7 +7798,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>538</v>
       </c>
@@ -7640,7 +7815,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>539</v>
       </c>
@@ -7657,7 +7832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>539</v>
       </c>
@@ -7674,7 +7849,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>539</v>
       </c>
@@ -7691,7 +7866,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>539</v>
       </c>
@@ -7708,7 +7883,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>539</v>
       </c>
@@ -7725,7 +7900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>540</v>
       </c>
@@ -7742,7 +7917,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>540</v>
       </c>
@@ -7759,7 +7934,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>540</v>
       </c>
@@ -7776,7 +7951,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>540</v>
       </c>
@@ -7793,7 +7968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>540</v>
       </c>
@@ -7810,7 +7985,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>541</v>
       </c>
@@ -7827,7 +8002,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>541</v>
       </c>
@@ -7844,7 +8019,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>541</v>
       </c>
@@ -7861,7 +8036,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>541</v>
       </c>
@@ -7878,7 +8053,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>541</v>
       </c>
@@ -7895,7 +8070,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>542</v>
       </c>
@@ -7912,7 +8087,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>542</v>
       </c>
@@ -7929,7 +8104,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>542</v>
       </c>
@@ -7946,7 +8121,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>542</v>
       </c>
@@ -7963,7 +8138,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>542</v>
       </c>
@@ -7980,7 +8155,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>543</v>
       </c>
@@ -7997,7 +8172,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>543</v>
       </c>
@@ -8014,7 +8189,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>543</v>
       </c>
@@ -8031,7 +8206,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>543</v>
       </c>
@@ -8048,7 +8223,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>543</v>
       </c>
@@ -8065,7 +8240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>549</v>
       </c>
@@ -8082,7 +8257,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>549</v>
       </c>
@@ -8099,7 +8274,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>549</v>
       </c>
@@ -8116,7 +8291,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>549</v>
       </c>
@@ -8133,7 +8308,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>549</v>
       </c>
@@ -8150,7 +8325,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>550</v>
       </c>
@@ -8167,7 +8342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>550</v>
       </c>
@@ -8184,7 +8359,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>550</v>
       </c>
@@ -8201,7 +8376,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>550</v>
       </c>
@@ -8218,7 +8393,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>550</v>
       </c>
@@ -8235,7 +8410,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>551</v>
       </c>
@@ -8252,7 +8427,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>551</v>
       </c>
@@ -8269,7 +8444,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>551</v>
       </c>
@@ -8286,7 +8461,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>551</v>
       </c>
@@ -8303,7 +8478,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>551</v>
       </c>
@@ -8320,7 +8495,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>552</v>
       </c>
@@ -8337,7 +8512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>552</v>
       </c>
@@ -8354,7 +8529,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>552</v>
       </c>
@@ -8371,7 +8546,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>552</v>
       </c>
@@ -8388,7 +8563,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>552</v>
       </c>
@@ -8405,7 +8580,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>553</v>
       </c>
@@ -8422,7 +8597,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>553</v>
       </c>
@@ -8439,7 +8614,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>553</v>
       </c>
@@ -8456,7 +8631,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>553</v>
       </c>
@@ -8473,7 +8648,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>553</v>
       </c>
@@ -8490,7 +8665,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>554</v>
       </c>
@@ -8507,7 +8682,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>554</v>
       </c>
@@ -8524,7 +8699,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>554</v>
       </c>
@@ -8541,7 +8716,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>554</v>
       </c>
@@ -8558,7 +8733,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>554</v>
       </c>
@@ -8575,7 +8750,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>555</v>
       </c>
@@ -8592,7 +8767,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>555</v>
       </c>
@@ -8609,7 +8784,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>555</v>
       </c>
@@ -8626,7 +8801,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>555</v>
       </c>
@@ -8643,7 +8818,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>555</v>
       </c>
@@ -8660,7 +8835,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>556</v>
       </c>
@@ -8677,7 +8852,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>556</v>
       </c>
@@ -8694,7 +8869,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>556</v>
       </c>
@@ -8711,7 +8886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>556</v>
       </c>
@@ -8728,7 +8903,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>556</v>
       </c>
@@ -8742,6 +8917,431 @@
         <v>503</v>
       </c>
       <c r="E351" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>792</v>
+      </c>
+      <c r="B352" t="s">
+        <v>793</v>
+      </c>
+      <c r="C352" t="s">
+        <v>786</v>
+      </c>
+      <c r="D352" t="s">
+        <v>787</v>
+      </c>
+      <c r="E352" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>792</v>
+      </c>
+      <c r="B353" t="s">
+        <v>794</v>
+      </c>
+      <c r="C353" t="s">
+        <v>788</v>
+      </c>
+      <c r="D353" t="s">
+        <v>789</v>
+      </c>
+      <c r="E353" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>792</v>
+      </c>
+      <c r="B354" t="s">
+        <v>796</v>
+      </c>
+      <c r="C354" t="s">
+        <v>788</v>
+      </c>
+      <c r="D354" t="s">
+        <v>790</v>
+      </c>
+      <c r="E354" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>792</v>
+      </c>
+      <c r="B355" t="s">
+        <v>795</v>
+      </c>
+      <c r="C355" t="s">
+        <v>788</v>
+      </c>
+      <c r="D355" t="s">
+        <v>790</v>
+      </c>
+      <c r="E355" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>792</v>
+      </c>
+      <c r="B356" t="s">
+        <v>797</v>
+      </c>
+      <c r="C356" t="s">
+        <v>788</v>
+      </c>
+      <c r="D356" t="s">
+        <v>791</v>
+      </c>
+      <c r="E356" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>799</v>
+      </c>
+      <c r="B357" t="s">
+        <v>800</v>
+      </c>
+      <c r="C357" t="s">
+        <v>798</v>
+      </c>
+      <c r="D357" t="s">
+        <v>805</v>
+      </c>
+      <c r="E357" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>799</v>
+      </c>
+      <c r="B358" t="s">
+        <v>801</v>
+      </c>
+      <c r="C358" t="s">
+        <v>798</v>
+      </c>
+      <c r="D358" t="s">
+        <v>806</v>
+      </c>
+      <c r="E358" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>799</v>
+      </c>
+      <c r="B359" t="s">
+        <v>803</v>
+      </c>
+      <c r="C359" t="s">
+        <v>798</v>
+      </c>
+      <c r="D359" t="s">
+        <v>807</v>
+      </c>
+      <c r="E359" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>799</v>
+      </c>
+      <c r="B360" t="s">
+        <v>802</v>
+      </c>
+      <c r="C360" t="s">
+        <v>798</v>
+      </c>
+      <c r="D360" t="s">
+        <v>807</v>
+      </c>
+      <c r="E360" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>799</v>
+      </c>
+      <c r="B361" t="s">
+        <v>804</v>
+      </c>
+      <c r="C361" t="s">
+        <v>798</v>
+      </c>
+      <c r="D361" t="s">
+        <v>808</v>
+      </c>
+      <c r="E361" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>814</v>
+      </c>
+      <c r="B362" t="s">
+        <v>816</v>
+      </c>
+      <c r="C362" t="s">
+        <v>809</v>
+      </c>
+      <c r="D362" t="s">
+        <v>810</v>
+      </c>
+      <c r="E362" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>814</v>
+      </c>
+      <c r="B363" t="s">
+        <v>815</v>
+      </c>
+      <c r="C363" t="s">
+        <v>809</v>
+      </c>
+      <c r="D363" t="s">
+        <v>811</v>
+      </c>
+      <c r="E363" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>814</v>
+      </c>
+      <c r="B364" t="s">
+        <v>819</v>
+      </c>
+      <c r="C364" t="s">
+        <v>809</v>
+      </c>
+      <c r="D364" t="s">
+        <v>812</v>
+      </c>
+      <c r="E364" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>814</v>
+      </c>
+      <c r="B365" t="s">
+        <v>817</v>
+      </c>
+      <c r="C365" t="s">
+        <v>809</v>
+      </c>
+      <c r="D365" t="s">
+        <v>812</v>
+      </c>
+      <c r="E365" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>814</v>
+      </c>
+      <c r="B366" t="s">
+        <v>818</v>
+      </c>
+      <c r="C366" t="s">
+        <v>809</v>
+      </c>
+      <c r="D366" t="s">
+        <v>813</v>
+      </c>
+      <c r="E366" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>825</v>
+      </c>
+      <c r="B367" t="s">
+        <v>826</v>
+      </c>
+      <c r="C367" t="s">
+        <v>820</v>
+      </c>
+      <c r="D367" t="s">
+        <v>824</v>
+      </c>
+      <c r="E367" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>825</v>
+      </c>
+      <c r="B368" t="s">
+        <v>827</v>
+      </c>
+      <c r="C368" t="s">
+        <v>820</v>
+      </c>
+      <c r="D368" t="s">
+        <v>821</v>
+      </c>
+      <c r="E368" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>825</v>
+      </c>
+      <c r="B369" t="s">
+        <v>828</v>
+      </c>
+      <c r="C369" t="s">
+        <v>820</v>
+      </c>
+      <c r="D369" t="s">
+        <v>823</v>
+      </c>
+      <c r="E369" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>825</v>
+      </c>
+      <c r="B370" t="s">
+        <v>829</v>
+      </c>
+      <c r="C370" t="s">
+        <v>820</v>
+      </c>
+      <c r="D370" t="s">
+        <v>823</v>
+      </c>
+      <c r="E370" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>825</v>
+      </c>
+      <c r="B371" t="s">
+        <v>830</v>
+      </c>
+      <c r="C371" t="s">
+        <v>820</v>
+      </c>
+      <c r="D371" t="s">
+        <v>822</v>
+      </c>
+      <c r="E371" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>836</v>
+      </c>
+      <c r="B372" t="s">
+        <v>837</v>
+      </c>
+      <c r="C372" t="s">
+        <v>831</v>
+      </c>
+      <c r="D372" t="s">
+        <v>832</v>
+      </c>
+      <c r="E372" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>836</v>
+      </c>
+      <c r="B373" t="s">
+        <v>838</v>
+      </c>
+      <c r="C373" t="s">
+        <v>831</v>
+      </c>
+      <c r="D373" t="s">
+        <v>833</v>
+      </c>
+      <c r="E373" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>836</v>
+      </c>
+      <c r="B374" t="s">
+        <v>839</v>
+      </c>
+      <c r="C374" t="s">
+        <v>831</v>
+      </c>
+      <c r="D374" t="s">
+        <v>834</v>
+      </c>
+      <c r="E374" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>836</v>
+      </c>
+      <c r="B375" t="s">
+        <v>840</v>
+      </c>
+      <c r="C375" t="s">
+        <v>831</v>
+      </c>
+      <c r="D375" t="s">
+        <v>834</v>
+      </c>
+      <c r="E375" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>836</v>
+      </c>
+      <c r="B376" t="s">
+        <v>841</v>
+      </c>
+      <c r="C376" t="s">
+        <v>831</v>
+      </c>
+      <c r="D376" t="s">
+        <v>835</v>
+      </c>
+      <c r="E376" t="s">
         <v>208</v>
       </c>
     </row>
